--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,26 @@
   </si>
   <si>
     <t>2015.11.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在给的需求文档里没有关于权限管理的修改的接口方法，请提供。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,21 +593,41 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,134 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="13395" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>功能模块</t>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>提问者</t>
+  </si>
+  <si>
+    <t>提问时间</t>
+  </si>
+  <si>
+    <t>回答者</t>
+  </si>
+  <si>
+    <t>回答时间</t>
+  </si>
   <si>
     <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理的更新后台貌似有错，后台像是实现的和insert的操作是一样的，无论怎么操作返回的信息都是用户名已经存在。</t>
+  </si>
+  <si>
+    <t>耿晓红</t>
+  </si>
+  <si>
+    <t>2015.11.11</t>
+  </si>
+  <si>
+    <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
   </si>
   <si>
     <t>部门管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理的更新后台貌似有错，后台像是实现的和insert的操作是一样的，无论怎么操作返回的信息都是用户名已经存在。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门更新的模块，使用put报错
  HttpResponseProxy{HTTP/1.0 405 METHOD NOT ALLOWED [Date: Wed, 11 Nov 2015 12:59:28 GMT, Server: WSGIServer/0.1 Python/2.7.6, X-Frame-Options: SAMEORIGIN, Content-Type: text/html; charset=utf-8, Allow: GET, HEAD, OPTIONS] ResponseEntityProxy{[Content-Type: text/html; charset=utf-8,Chunked: false]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门删除的模块也存在和3一样的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色对应权限列表里的移除权限的方法没有提供。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015.11.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在给的需求文档里没有关于权限管理的修改的接口方法，请提供。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯管理,站内信管理</t>
+  </si>
+  <si>
+    <t>是否添加批量删除功能,如果没有批量删除,是否去除行号及复选框</t>
+  </si>
+  <si>
+    <t>孙俊杰</t>
+  </si>
+  <si>
+    <t>2015.11.13</t>
+  </si>
+  <si>
+    <t>评论管理</t>
+  </si>
+  <si>
+    <t>按”是否屏蔽”过滤时,返回数据不正确(即按”是否屏蔽”单条件查询结果一直返回的是所有数据”)</t>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>是否去除分页功能</t>
+  </si>
+  <si>
+    <t>笔记管理</t>
+  </si>
+  <si>
+    <t>按”是否公开”条件查询结果不正确</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,31 +164,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -237,71 +253,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,8 +450,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -471,203 +487,279 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="27.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="22.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" ht="54" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+    <row r="4" ht="189" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" ht="27" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" ht="27" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" ht="54" spans="1:7">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -676,7 +768,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -685,7 +777,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -694,7 +786,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -703,7 +795,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -712,7 +804,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -721,7 +813,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -730,7 +822,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -740,34 +832,40 @@
       <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,134 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView windowWidth="13395" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>功能模块</t>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>提问者</t>
+  </si>
+  <si>
+    <t>提问时间</t>
+  </si>
+  <si>
+    <t>回答者</t>
+  </si>
+  <si>
+    <t>回答时间</t>
+  </si>
   <si>
     <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理的更新后台貌似有错，后台像是实现的和insert的操作是一样的，无论怎么操作返回的信息都是用户名已经存在。</t>
+  </si>
+  <si>
+    <t>耿晓红</t>
+  </si>
+  <si>
+    <t>2015.11.11</t>
+  </si>
+  <si>
+    <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
   </si>
   <si>
     <t>部门管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理的更新后台貌似有错，后台像是实现的和insert的操作是一样的，无论怎么操作返回的信息都是用户名已经存在。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门更新的模块，使用put报错
  HttpResponseProxy{HTTP/1.0 405 METHOD NOT ALLOWED [Date: Wed, 11 Nov 2015 12:59:28 GMT, Server: WSGIServer/0.1 Python/2.7.6, X-Frame-Options: SAMEORIGIN, Content-Type: text/html; charset=utf-8, Allow: GET, HEAD, OPTIONS] ResponseEntityProxy{[Content-Type: text/html; charset=utf-8,Chunked: false]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门删除的模块也存在和3一样的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色对应权限列表里的移除权限的方法没有提供。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015.11.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在给的需求文档里没有关于权限管理的修改的接口方法，请提供。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯管理,站内信管理</t>
+  </si>
+  <si>
+    <t>是否添加批量删除功能,如果没有批量删除,是否去除行号及复选框</t>
+  </si>
+  <si>
+    <t>孙俊杰</t>
+  </si>
+  <si>
+    <t>2015.11.13</t>
+  </si>
+  <si>
+    <t>评论管理</t>
+  </si>
+  <si>
+    <t>按”是否屏蔽”过滤时,返回数据不正确(即按”是否屏蔽”单条件查询结果一直返回的是所有数据”)</t>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>是否去除分页功能</t>
+  </si>
+  <si>
+    <t>笔记管理</t>
+  </si>
+  <si>
+    <t>按”是否公开”条件查询结果不正确</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,31 +164,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -237,71 +253,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,8 +450,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -471,203 +487,279 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="27.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="22.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" ht="54" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+    <row r="4" ht="189" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" ht="27" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" ht="27" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" ht="54" spans="1:7">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -676,7 +768,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -685,7 +777,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -694,7 +786,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -703,7 +795,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -712,7 +804,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -721,7 +813,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -730,7 +822,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -740,34 +832,40 @@
       <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13395" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>编号</t>
   </si>
@@ -107,19 +107,29 @@
   </si>
   <si>
     <t>按”是否公开”条件查询结果不正确</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源库统计的界面里没有发布和审核的接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -127,9 +137,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,23 +181,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -196,14 +198,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -502,6 +506,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -534,15 +539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
@@ -552,7 +556,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:7">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -594,7 +598,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="54" spans="1:7">
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -613,7 +617,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="189" spans="1:7">
+    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -632,7 +636,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -651,7 +655,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="27" spans="1:7">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -670,7 +674,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="27" spans="1:7">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -689,7 +693,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -708,7 +712,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="54" spans="1:7">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -725,7 +729,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
@@ -742,7 +746,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -759,16 +763,24 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -777,7 +789,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -786,7 +798,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -795,7 +807,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -804,7 +816,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -813,7 +825,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -822,7 +834,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -832,40 +844,34 @@
       <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>编号</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>2015.11.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源日志的接口没有提供，相关的参数也没有文档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +555,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,12 +792,20 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>编号</t>
   </si>
@@ -135,6 +135,26 @@
   <si>
     <t>2015.11.15</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到任何有关应用管理接口的文档。请提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理的菜单在页面上只有专题管理和精品课程管理，我们只需要这两个吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,7 +575,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -809,21 +829,37 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>编号</t>
   </si>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>应用管理的菜单在页面上只有专题管理和精品课程管理，我们只需要这两个吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +579,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -865,7 +869,9 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13395" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>编号</t>
   </si>
@@ -107,19 +107,45 @@
   </si>
   <si>
     <t>按”是否公开”条件查询结果不正确</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提供资源发布和审批的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志列表的接口没有提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理相关的所有接口参数没有提供文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -127,7 +153,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -164,23 +190,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -196,14 +207,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -502,6 +515,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -534,15 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
@@ -552,7 +565,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:7">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -594,7 +607,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="54" spans="1:7">
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -613,7 +626,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="189" spans="1:7">
+    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -632,7 +645,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -651,7 +664,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="27" spans="1:7">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -670,7 +683,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="27" spans="1:7">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -689,7 +702,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -708,7 +721,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="54" spans="1:7">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -725,7 +738,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
@@ -742,7 +755,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -759,43 +772,75 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -804,7 +849,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -813,7 +858,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -822,7 +867,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -832,40 +877,34 @@
       <c r="G19" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="4935"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="问题" sheetId="1" r:id="rId1"/>
+    <sheet name="问题15" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>编号</t>
   </si>
@@ -110,42 +111,52 @@
   </si>
   <si>
     <t>资源管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>没有提供资源发布和审批的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015.11.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作日志列表的接口没有提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理</t>
   </si>
   <si>
     <t>应用管理相关的所有接口参数没有提供文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码表</t>
+  </si>
+  <si>
+    <t>列表查询，按编码查询，结果集中编码项有重复，参见【问题15】sheet</t>
+  </si>
+  <si>
+    <t>田秋莲</t>
+  </si>
+  <si>
+    <t>/encode?code=G</t>
+  </si>
+  <si>
+    <t>按编码查询，结果集中编码项有重复</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -153,7 +164,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -190,13 +208,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -206,18 +240,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,18 +554,17 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -548,363 +586,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="22.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" ht="54" spans="1:7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="54" spans="1:7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="189" spans="1:7">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" ht="27" spans="1:7">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" ht="27" spans="1:7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" ht="27" spans="1:7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" ht="54" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" ht="27" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" ht="27" spans="1:7">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" ht="40.5" spans="1:7">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" ht="40.5" spans="1:7">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>编号</t>
   </si>
@@ -138,6 +138,22 @@
   </si>
   <si>
     <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,12 +856,20 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>编号</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>用户管理</t>
-  </si>
-  <si>
-    <t>用户管理的更新后台貌似有错，后台像是实现的和insert的操作是一样的，无论怎么操作返回的信息都是用户名已经存在。</t>
   </si>
   <si>
     <t>耿晓红</t>
@@ -67,9 +64,6 @@
     <t>角色管理</t>
   </si>
   <si>
-    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
-  </si>
-  <si>
     <t>2015.11.12</t>
   </si>
   <si>
@@ -141,19 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户管理</t>
+    <t>用户管理的更新后台貌似有错，后台像是实现的和insert的操作是一样的，无论怎么操作返回的信息都是用户名已经存在。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.16</t>
+    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,13 +598,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -631,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -647,16 +633,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -666,16 +652,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -685,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -704,16 +690,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -723,16 +709,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -740,16 +726,16 @@
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -757,16 +743,16 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -774,16 +760,16 @@
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -791,16 +777,16 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -808,16 +794,16 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -825,16 +811,16 @@
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -842,34 +828,26 @@
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>编号</t>
   </si>
@@ -32,9 +31,6 @@
   </si>
   <si>
     <t>提问时间</t>
-  </si>
-  <si>
-    <t>回答者</t>
   </si>
   <si>
     <t>回答时间</t>
@@ -144,19 +140,139 @@
   </si>
   <si>
     <t>按编码查询，结果集中编码项有重复</t>
+  </si>
+  <si>
+    <t>该流程目前在ui端是正常的，您说的方法指什么？删除权限的接口是有的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限接口不设修改接口，需要修改权限需要用户先删除当前权限再重新创建。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要添加批量删除功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口问题，马上提交进行调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页功能保留</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口问题，马上提交进行调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理目前只有专题的接口，先做专题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看到状况，新建的正常，是否为历史数据问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后回复</t>
+  </si>
+  <si>
+    <t>确认后回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>015.11.16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>015.11.16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>015.11.16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新是去掉username可以更新</t>
+  </si>
+  <si>
+    <t>编号不能为空，添加用户时需要填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试未发现问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试未发现问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -171,8 +287,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -208,27 +331,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,20 +351,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="352425"/>
+          <a:ext cx="9734550" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="5105400"/>
+          <a:ext cx="9858375" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,6 +813,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -586,25 +846,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="22.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -621,309 +881,377 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="54" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="54" spans="1:7">
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="189" spans="1:7">
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="27" spans="1:7">
+      <c r="F4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="27" spans="1:7">
+      <c r="F5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="27" spans="1:7">
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" ht="27" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="54" spans="1:7">
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" ht="27" spans="1:7">
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" ht="27" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" ht="40.5" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" ht="40.5" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="6">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -934,7 +1262,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -946,57 +1274,55 @@
       <c r="G19" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
     <sheet name="问题15" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="问题17" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>编号</t>
   </si>
@@ -265,6 +265,36 @@
   </si>
   <si>
     <t>2015.11.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在专题提供的创建专题的接口里，只有三个入力参数
+ * name
+  * type：string
+  * 举例："今日头条"
+  * 可否为空：no
+ * description
+  * type: string
+  * 举例: "每日最热的头条"
+  * 可否为空: yes
+ * resource_ids
+  * type:list
+  * 举例: [1, 2, 3]
+  * 可否为空: yes
+  * 说明：资源 id 列表
+但是在添加的popup上，有多余这三个参数的其他field，具体的参见sheet问题17.请确认添加的popup页面是否需要改变？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,6 +539,66 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6705600" cy="6400800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -849,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,14 +1341,22 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
@@ -1317,7 +1415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -1325,5 +1425,6 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -272,6 +272,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>在专题提供的创建专题的接口里，只有三个入力参数
  * name
   * type：string
@@ -286,15 +294,8 @@
   * 举例: [1, 2, 3]
   * 可否为空: yes
   * 说明：资源 id 列表
-但是在添加的popup上，有多余这三个参数的其他field，具体的参见sheet问题17.请确认添加的popup页面是否需要改变？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.17</t>
+但是在添加的popup上，有多余这三个参数的其他field，具体的参见sheet问题17.请确认添加的popup页面是否需要改变？
+在专题的更新页面存在同样的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1341,7 +1342,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="270" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1349,13 +1350,13 @@
         <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="问题17" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>编号</t>
   </si>
@@ -33,6 +34,9 @@
     <t>提问时间</t>
   </si>
   <si>
+    <t>回答</t>
+  </si>
+  <si>
     <t>回答时间</t>
   </si>
   <si>
@@ -48,144 +52,17 @@
     <t>2015.11.11</t>
   </si>
   <si>
-    <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
-  </si>
-  <si>
-    <t>部门管理</t>
-  </si>
-  <si>
-    <t>部门更新的模块，使用put报错
- HttpResponseProxy{HTTP/1.0 405 METHOD NOT ALLOWED [Date: Wed, 11 Nov 2015 12:59:28 GMT, Server: WSGIServer/0.1 Python/2.7.6, X-Frame-Options: SAMEORIGIN, Content-Type: text/html; charset=utf-8, Allow: GET, HEAD, OPTIONS] ResponseEntityProxy{[Content-Type: text/html; charset=utf-8,Chunked: false]}}</t>
-  </si>
-  <si>
-    <t>部门删除的模块也存在和3一样的问题。</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-  </si>
-  <si>
-    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
-  </si>
-  <si>
-    <t>2015.11.12</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>在给的需求文档里没有关于权限管理的修改的接口方法，请提供。</t>
-  </si>
-  <si>
-    <t>资讯管理,站内信管理</t>
-  </si>
-  <si>
-    <t>是否添加批量删除功能,如果没有批量删除,是否去除行号及复选框</t>
-  </si>
-  <si>
-    <t>孙俊杰</t>
-  </si>
-  <si>
-    <t>2015.11.13</t>
-  </si>
-  <si>
-    <t>评论管理</t>
-  </si>
-  <si>
-    <t>按”是否屏蔽”过滤时,返回数据不正确(即按”是否屏蔽”单条件查询结果一直返回的是所有数据”)</t>
-  </si>
-  <si>
-    <t>标签管理</t>
-  </si>
-  <si>
-    <t>是否去除分页功能</t>
-  </si>
-  <si>
-    <t>笔记管理</t>
-  </si>
-  <si>
-    <t>按”是否公开”条件查询结果不正确</t>
-  </si>
-  <si>
-    <t>资源管理</t>
-  </si>
-  <si>
-    <t>没有提供资源发布和审批的接口</t>
-  </si>
-  <si>
-    <t>2015.11.15</t>
-  </si>
-  <si>
-    <t>操作日志列表的接口没有提供</t>
-  </si>
-  <si>
-    <t>应用管理</t>
-  </si>
-  <si>
-    <t>应用管理相关的所有接口参数没有提供文档</t>
-  </si>
-  <si>
-    <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
-  </si>
-  <si>
-    <t>编码表</t>
-  </si>
-  <si>
-    <t>列表查询，按编码查询，结果集中编码项有重复，参见【问题15】sheet</t>
-  </si>
-  <si>
-    <t>田秋莲</t>
-  </si>
-  <si>
-    <t>/encode?code=G</t>
-  </si>
-  <si>
-    <t>按编码查询，结果集中编码项有重复</t>
-  </si>
-  <si>
-    <t>该流程目前在ui端是正常的，您说的方法指什么？删除权限的接口是有的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限接口不设修改接口，需要修改权限需要用户先删除当前权限再重新创建。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要添加批量删除功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口问题，马上提交进行调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页功能保留</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口问题，马上提交进行调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用管理目前只有专题的接口，先做专题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没看到状况，新建的正常，是否为历史数据问题。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认后回复</t>
-  </si>
-  <si>
-    <t>确认后回复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>更新是去掉username可以更新</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -198,86 +75,139 @@
       </rPr>
       <t>015.11.16</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>015.11.16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>015.11.16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新是去掉username可以更新</t>
+  </si>
+  <si>
+    <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
   </si>
   <si>
     <t>编号不能为空，添加用户时需要填写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>部门更新的模块，使用put报错
+ HttpResponseProxy{HTTP/1.0 405 METHOD NOT ALLOWED [Date: Wed, 11 Nov 2015 12:59:28 GMT, Server: WSGIServer/0.1 Python/2.7.6, X-Frame-Options: SAMEORIGIN, Content-Type: text/html; charset=utf-8, Allow: GET, HEAD, OPTIONS] ResponseEntityProxy{[Content-Type: text/html; charset=utf-8,Chunked: false]}}</t>
   </si>
   <si>
     <t>测试未发现问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试未发现问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回答</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门删除的模块也存在和3一样的问题。</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
+  </si>
+  <si>
+    <t>2015.11.12</t>
+  </si>
+  <si>
+    <t>该流程目前在ui端是正常的，您说的方法指什么？删除权限的接口是有的。</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>在给的需求文档里没有关于权限管理的修改的接口方法，请提供。</t>
+  </si>
+  <si>
+    <t>权限接口不设修改接口，需要修改权限需要用户先删除当前权限再重新创建。</t>
+  </si>
+  <si>
+    <t>资讯管理,站内信管理</t>
+  </si>
+  <si>
+    <t>是否添加批量删除功能,如果没有批量删除,是否去除行号及复选框</t>
+  </si>
+  <si>
+    <t>孙俊杰</t>
+  </si>
+  <si>
+    <t>2015.11.13</t>
+  </si>
+  <si>
+    <t>需要添加批量删除功能</t>
+  </si>
+  <si>
+    <t>评论管理</t>
+  </si>
+  <si>
+    <t>按”是否屏蔽”过滤时,返回数据不正确(即按”是否屏蔽”单条件查询结果一直返回的是所有数据”)</t>
+  </si>
+  <si>
+    <t>接口问题，马上提交进行调整</t>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>是否去除分页功能</t>
+  </si>
+  <si>
+    <t>分页功能保留</t>
+  </si>
+  <si>
+    <t>笔记管理</t>
+  </si>
+  <si>
+    <t>按”是否公开”条件查询结果不正确</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+  </si>
+  <si>
+    <t>没有提供资源发布和审批的接口</t>
+  </si>
+  <si>
+    <t>2015.11.15</t>
+  </si>
+  <si>
+    <t>创建资源接口的status参数是表示资源状态的</t>
+  </si>
+  <si>
+    <t>操作日志列表的接口没有提供</t>
+  </si>
+  <si>
+    <t>请参照 “日志统计访问”接口文档</t>
+  </si>
+  <si>
+    <t>应用管理</t>
+  </si>
+  <si>
+    <t>应用管理相关的所有接口参数没有提供文档</t>
+  </si>
+  <si>
+    <t>应用管理目前只有专题的接口，先做专题</t>
+  </si>
+  <si>
+    <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>编码表</t>
+  </si>
+  <si>
+    <t>列表查询，按编码查询，结果集中编码项有重复，参见【问题15】sheet</t>
+  </si>
+  <si>
+    <t>田秋莲</t>
+  </si>
+  <si>
+    <t>没看到状况，新建的正常，是否为历史数据问题。</t>
   </si>
   <si>
     <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2015.11.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的数据库里的“教工号”字段，接口中是“number”参数</t>
   </si>
   <si>
     <t>在专题提供的创建专题的接口里，只有三个入力参数
@@ -294,16 +224,41 @@
   * 举例: [1, 2, 3]
   * 可否为空: yes
   * 说明：资源 id 列表
-但是在添加的popup上，有多余这三个参数的其他field，具体的参见sheet问题17.请确认添加的popup页面是否需要改变？
-在专题的更新页面存在同样的问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+但是在添加的popup上，有多余这三个参数的其他field，具体的参见sheet问题17.请确认添加的popup页面是否需要改变？</t>
+  </si>
+  <si>
+    <t>2015.11.17</t>
+  </si>
+  <si>
+    <t>请查看最新的专题创建接口</t>
+  </si>
+  <si>
+    <t>词汇表</t>
+  </si>
+  <si>
+    <t>词汇表，更新前和更新后【词汇表】字段的顺序不一致</t>
+  </si>
+  <si>
+    <t>该问题已提交接口方</t>
+  </si>
+  <si>
+    <t>/encode?code=G</t>
+  </si>
+  <si>
+    <t>按编码查询，结果集中编码项有重复</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -318,15 +273,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -362,12 +324,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -379,234 +356,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="666750" y="352425"/>
-          <a:ext cx="9734550" cy="4695825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="695325" y="5105400"/>
-          <a:ext cx="9858375" cy="5048250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6705600" cy="6400800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,7 +686,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -937,25 +718,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="22.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -972,460 +754,481 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="189" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="40.5" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="6">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" ht="27" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="6">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" ht="54" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="6">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="6">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" ht="27" spans="1:7">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="6">
-        <v>42324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8">
+        <v>42326</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:7">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="6">
-        <v>42324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8">
+        <v>42326</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:7">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="40.5" spans="1:7">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="6">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
+      <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="6">
+        <v>53</v>
+      </c>
+      <c r="G16" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" ht="40.5" spans="1:7">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="270" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="7">
+        <v>42326</v>
+      </c>
+    </row>
+    <row r="18" ht="256.5" spans="1:7">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="7">
+        <v>42326</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:7">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="7">
+        <v>42326</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="问题17" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>编号</t>
   </si>
@@ -99,9 +98,6 @@
     <t>角色管理</t>
   </si>
   <si>
-    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
-  </si>
-  <si>
     <t>2015.11.12</t>
   </si>
   <si>
@@ -201,13 +197,7 @@
     <t>没看到状况，新建的正常，是否为历史数据问题。</t>
   </si>
   <si>
-    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
-  </si>
-  <si>
     <t>2015.11.16</t>
-  </si>
-  <si>
-    <t>对应的数据库里的“教工号”字段，接口中是“number”参数</t>
   </si>
   <si>
     <t>在专题提供的创建专题的接口里，只有三个入力参数
@@ -247,18 +237,42 @@
   <si>
     <t>按编码查询，结果集中编码项有重复</t>
   </si>
+  <si>
+    <t>资源管理和应用管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在添加资源页面和添加专题页面的上传文件的功能中，上传问价的时候js报出下面的错误信息。
+XMLHttpRequest cannot load http://42.62.52.40:8000/file/upload. No 'Access-Control-Allow-Origin' header is present on the requested resource. Origin 'http://localhost:8080' is therefore not allowed access. 
+这个跨域访问的设置我在我这边设置后不起任何作用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的数据库里的“教工号”字段，接口中是“number”参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -287,8 +301,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -324,23 +339,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -372,23 +372,231 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4096" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="352425"/>
+          <a:ext cx="9734550" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="5105400"/>
+          <a:ext cx="9858375" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6705600" cy="6400800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,6 +894,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -718,15 +927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
@@ -737,7 +945,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -760,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:7">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -783,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:7">
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -806,7 +1014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="189" spans="1:7">
+    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -829,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -852,383 +1060,653 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:7">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:7">
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="9" ht="54" spans="1:7">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:7">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G12" s="8">
         <v>42326</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:7">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="8">
         <v>42326</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:7">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="15" ht="40.5" spans="1:7">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="1:7">
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G16" s="7">
         <v>42324</v>
       </c>
     </row>
-    <row r="17" ht="40.5" spans="1:7">
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="G17" s="7">
         <v>42326</v>
       </c>
     </row>
-    <row r="18" ht="256.5" spans="1:7">
+    <row r="18" spans="1:7" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7">
         <v>42326</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:7">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7">
         <v>42326</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19440" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
     <sheet name="问题15" sheetId="2" r:id="rId2"/>
     <sheet name="问题17" sheetId="3" r:id="rId3"/>
+    <sheet name="问题21" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>编号</t>
   </si>
@@ -155,49 +156,118 @@
     <t>资源管理</t>
   </si>
   <si>
+    <t>2015.11.15</t>
+  </si>
+  <si>
+    <t>创建资源接口的status参数是表示资源状态的</t>
+  </si>
+  <si>
+    <t>操作日志列表的接口没有提供</t>
+  </si>
+  <si>
+    <t>应用管理</t>
+  </si>
+  <si>
+    <t>应用管理相关的所有接口参数没有提供文档</t>
+  </si>
+  <si>
+    <t>应用管理目前只有专题的接口，先做专题</t>
+  </si>
+  <si>
+    <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>编码表</t>
+  </si>
+  <si>
+    <t>列表查询，按编码查询，结果集中编码项有重复，参见【问题15】sheet</t>
+  </si>
+  <si>
+    <t>田秋莲</t>
+  </si>
+  <si>
+    <t>没看到状况，新建的正常，是否为历史数据问题。</t>
+  </si>
+  <si>
+    <t>2015.11.16</t>
+  </si>
+  <si>
+    <t>2015.11.17</t>
+  </si>
+  <si>
+    <t>请查看最新的专题创建接口</t>
+  </si>
+  <si>
+    <t>词汇表</t>
+  </si>
+  <si>
+    <t>词汇表，更新前和更新后【词汇表】字段的顺序不一致</t>
+  </si>
+  <si>
+    <t>该问题已提交接口方</t>
+  </si>
+  <si>
+    <t>/encode?code=G</t>
+  </si>
+  <si>
+    <t>按编码查询，结果集中编码项有重复</t>
+  </si>
+  <si>
+    <t>资源管理和应用管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在添加资源页面和添加专题页面的上传文件的功能中，上传问价的时候js报出下面的错误信息。
+XMLHttpRequest cannot load http://42.62.52.40:8000/file/upload. No 'Access-Control-Allow-Origin' header is present on the requested resource. Origin 'http://localhost:8080' is therefore not allowed access. 
+这个跨域访问的设置我在我这边设置后不起任何作用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的数据库里的“教工号”字段，接口中是“number”参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>没有提供资源发布和审批的接口</t>
-  </si>
-  <si>
-    <t>2015.11.15</t>
-  </si>
-  <si>
-    <t>创建资源接口的status参数是表示资源状态的</t>
-  </si>
-  <si>
-    <t>操作日志列表的接口没有提供</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>请参照 “日志统计访问”接口文档</t>
-  </si>
-  <si>
-    <t>应用管理</t>
-  </si>
-  <si>
-    <t>应用管理相关的所有接口参数没有提供文档</t>
-  </si>
-  <si>
-    <t>应用管理目前只有专题的接口，先做专题</t>
-  </si>
-  <si>
-    <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>编码表</t>
-  </si>
-  <si>
-    <t>列表查询，按编码查询，结果集中编码项有重复，参见【问题15】sheet</t>
-  </si>
-  <si>
-    <t>田秋莲</t>
-  </si>
-  <si>
-    <t>没看到状况，新建的正常，是否为历史数据问题。</t>
-  </si>
-  <si>
-    <t>2015.11.16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在专题提供的创建专题的接口里，只有三个入力参数
@@ -215,56 +285,27 @@
   * 可否为空: yes
   * 说明：资源 id 列表
 但是在添加的popup上，有多余这三个参数的其他field，具体的参见sheet问题17.请确认添加的popup页面是否需要改变？</t>
-  </si>
-  <si>
-    <t>2015.11.17</t>
-  </si>
-  <si>
-    <t>请查看最新的专题创建接口</t>
-  </si>
-  <si>
-    <t>词汇表</t>
-  </si>
-  <si>
-    <t>词汇表，更新前和更新后【词汇表】字段的顺序不一致</t>
-  </si>
-  <si>
-    <t>该问题已提交接口方</t>
-  </si>
-  <si>
-    <t>/encode?code=G</t>
-  </si>
-  <si>
-    <t>按编码查询，结果集中编码项有重复</t>
-  </si>
-  <si>
-    <t>资源管理和应用管理</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在添加资源页面和添加专题页面的上传文件的功能中，上传问价的时候js报出下面的错误信息。
-XMLHttpRequest cannot load http://42.62.52.40:8000/file/upload. No 'Access-Control-Allow-Origin' header is present on the requested resource. Origin 'http://localhost:8080' is therefore not allowed access. 
-这个跨域访问的设置我在我这边设置后不起任何作用。</t>
+    <t xml:space="preserve">更新资源的时候，按照最新的文档的参数传参，返回的是405， 请确认一下最新文档的参数是否正确。
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>耿晓红</t>
+    <t>操作日志的列表显示的mockup是要这样的吗？我现在用的是来源统计这个接口，如果这个不对，你能提供一下我们需要使用哪个具体的接口吗？还有，必须要和给定的表头一致吗？参见sheet【问题18】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2015.11.19</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的数据库里的“教工号”字段，接口中是“number”参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
+    <t>提供的表头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>改完后的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到相关资源源数据的接口，请确认这个接口。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -304,6 +345,11 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -590,6 +636,121 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="180975"/>
+          <a:ext cx="7610475" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4391025"/>
+          <a:ext cx="7105650" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -930,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1206,16 +1367,16 @@
         <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="8">
         <v>42326</v>
@@ -1229,16 +1390,16 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G13" s="8">
         <v>42326</v>
@@ -1249,19 +1410,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7">
         <v>42324</v>
@@ -1272,19 +1433,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7">
         <v>42324</v>
@@ -1295,19 +1456,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G16" s="7">
         <v>42324</v>
@@ -1321,16 +1482,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7">
         <v>42326</v>
@@ -1341,19 +1502,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18" s="7">
         <v>42326</v>
@@ -1364,19 +1525,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7">
         <v>42326</v>
@@ -1387,44 +1548,74 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+    <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
@@ -1676,12 +1867,12 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1709,4 +1900,29 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -293,10 +293,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>操作日志的列表显示的mockup是要这样的吗？我现在用的是来源统计这个接口，如果这个不对，你能提供一下我们需要使用哪个具体的接口吗？还有，必须要和给定的表头一致吗？参见sheet【问题18】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>提供的表头</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -305,7 +301,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>没有找到相关资源源数据的接口，请确认这个接口。</t>
+    <t>没有找到相关资源元数据编辑的接口，请确认这个接口。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志的列表显示的mockup是要这样的吗？我现在用的是来源统计这个接口，如果这个不对，你能提供一下我们需要使用哪个具体的接口吗？还有，必须要和给定的表头一致吗？参见sheet【问题21】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1589,7 +1589,7 @@
         <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>68</v>
@@ -1608,7 +1608,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>68</v>
@@ -1912,12 +1912,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7890"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="问题21" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>编号</t>
   </si>
@@ -38,6 +39,12 @@
   </si>
   <si>
     <t>回答时间</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>用户管理</t>
@@ -77,10 +84,16 @@
     </r>
   </si>
   <si>
+    <t>已解决</t>
+  </si>
+  <si>
     <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
   </si>
   <si>
     <t>编号不能为空，添加用户时需要填写</t>
+  </si>
+  <si>
+    <t>未解决</t>
   </si>
   <si>
     <t>部门管理</t>
@@ -93,12 +106,21 @@
     <t>测试未发现问题</t>
   </si>
   <si>
+    <t>需后台支持</t>
+  </si>
+  <si>
     <t>部门删除的模块也存在和3一样的问题。</t>
   </si>
   <si>
+    <t>后台已更新</t>
+  </si>
+  <si>
     <t>角色管理</t>
   </si>
   <si>
+    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
+  </si>
+  <si>
     <t>2015.11.12</t>
   </si>
   <si>
@@ -156,6 +178,9 @@
     <t>资源管理</t>
   </si>
   <si>
+    <t>没有提供资源发布和审批的接口</t>
+  </si>
+  <si>
     <t>2015.11.15</t>
   </si>
   <si>
@@ -165,6 +190,12 @@
     <t>操作日志列表的接口没有提供</t>
   </si>
   <si>
+    <t>请参照 “日志统计访问”接口文档</t>
+  </si>
+  <si>
+    <t>参照问题21</t>
+  </si>
+  <si>
     <t>应用管理</t>
   </si>
   <si>
@@ -174,6 +205,9 @@
     <t>应用管理目前只有专题的接口，先做专题</t>
   </si>
   <si>
+    <t>只做专题</t>
+  </si>
+  <si>
     <t>应该管理的页面下只有专题管理和精品课程管理，我们是只需要这两个功能吗？</t>
   </si>
   <si>
@@ -192,82 +226,13 @@
     <t>没看到状况，新建的正常，是否为历史数据问题。</t>
   </si>
   <si>
+    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
+  </si>
+  <si>
     <t>2015.11.16</t>
   </si>
   <si>
-    <t>2015.11.17</t>
-  </si>
-  <si>
-    <t>请查看最新的专题创建接口</t>
-  </si>
-  <si>
-    <t>词汇表</t>
-  </si>
-  <si>
-    <t>词汇表，更新前和更新后【词汇表】字段的顺序不一致</t>
-  </si>
-  <si>
-    <t>该问题已提交接口方</t>
-  </si>
-  <si>
-    <t>/encode?code=G</t>
-  </si>
-  <si>
-    <t>按编码查询，结果集中编码项有重复</t>
-  </si>
-  <si>
-    <t>资源管理和应用管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在添加资源页面和添加专题页面的上传文件的功能中，上传问价的时候js报出下面的错误信息。
-XMLHttpRequest cannot load http://42.62.52.40:8000/file/upload. No 'Access-Control-Allow-Origin' header is present on the requested resource. Origin 'http://localhost:8080' is therefore not allowed access. 
-这个跨域访问的设置我在我这边设置后不起任何作用。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.19</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理的搜索条件中有一个教工号，这个教工号是哪个字段？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>对应的数据库里的“教工号”字段，接口中是“number”参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色对应权限列表里的移除权限的方法没有提供。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有提供资源发布和审批的接口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.11.21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请参照 “日志统计访问”接口文档</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在专题提供的创建专题的接口里，只有三个入力参数
@@ -285,35 +250,70 @@
   * 可否为空: yes
   * 说明：资源 id 列表
 但是在添加的popup上，有多余这三个参数的其他field，具体的参见sheet问题17.请确认添加的popup页面是否需要改变？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.17</t>
+  </si>
+  <si>
+    <t>请查看最新的专题创建接口</t>
+  </si>
+  <si>
+    <t>词汇表</t>
+  </si>
+  <si>
+    <t>词汇表，更新前和更新后【词汇表】字段的顺序不一致</t>
+  </si>
+  <si>
+    <t>该问题已提交接口方</t>
+  </si>
+  <si>
+    <t>资源管理和应用管理</t>
+  </si>
+  <si>
+    <t>在添加资源页面和添加专题页面的上传文件的功能中，上传问价的时候js报出下面的错误信息。
+XMLHttpRequest cannot load http://42.62.52.40:8000/file/upload. No 'Access-Control-Allow-Origin' header is present on the requested resource. Origin 'http://localhost:8080' is therefore not allowed access. 
+这个跨域访问的设置我在我这边设置后不起任何作用。</t>
+  </si>
+  <si>
+    <t>2015.11.19</t>
   </si>
   <si>
     <t xml:space="preserve">更新资源的时候，按照最新的文档的参数传参，返回的是405， 请确认一下最新文档的参数是否正确。
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.21</t>
+  </si>
+  <si>
+    <t>操作日志的列表显示的mockup是要这样的吗？我现在用的是来源统计这个接口，如果这个不对，你能提供一下我们需要使用哪个具体的接口吗？还有，必须要和给定的表头一致吗？参见sheet【问题21】</t>
+  </si>
+  <si>
+    <t>没有找到相关资源元数据编辑的接口，请确认这个接口。</t>
+  </si>
+  <si>
+    <t>/encode?code=G</t>
+  </si>
+  <si>
+    <t>按编码查询，结果集中编码项有重复</t>
+  </si>
+  <si>
+    <t>改完后的</t>
   </si>
   <si>
     <t>提供的表头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>改完后的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有找到相关资源元数据编辑的接口，请确认这个接口。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作日志的列表显示的mockup是要这样的吗？我现在用的是来源统计这个接口，如果这个不对，你能提供一下我们需要使用哪个具体的接口吗？还有，必须要和给定的表头一致吗？参见sheet【问题21】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -342,13 +342,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -361,7 +355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,13 +378,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -399,365 +421,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4096" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="666750" y="352425"/>
-          <a:ext cx="9734550" cy="4695825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="695325" y="5105400"/>
-          <a:ext cx="9858375" cy="5048250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6705600" cy="6400800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="180975"/>
-          <a:ext cx="7610475" cy="3905250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4391025"/>
-          <a:ext cx="7105650" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,7 +767,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1088,16 +799,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="4.55833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="22.25" style="2" customWidth="1"/>
@@ -1106,7 +820,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1125,804 +839,975 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:13">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:13">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="189" spans="1:13">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I4" s="5"/>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:13">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I5" s="5"/>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7">
+        <v>31</v>
+      </c>
+      <c r="G7" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="27" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7">
+        <v>36</v>
+      </c>
+      <c r="G8" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" ht="54" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7">
+        <v>39</v>
+      </c>
+      <c r="G9" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7">
+        <v>42</v>
+      </c>
+      <c r="G10" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" ht="27" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7">
+        <v>39</v>
+      </c>
+      <c r="G11" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="H11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" ht="27" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="8">
+        <v>48</v>
+      </c>
+      <c r="G12" s="11">
         <v>42326</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="8">
+        <v>50</v>
+      </c>
+      <c r="G13" s="11">
         <v>42326</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="H13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="7">
+        <v>54</v>
+      </c>
+      <c r="G14" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="7">
+        <v>57</v>
+      </c>
+      <c r="G15" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="7">
+        <v>61</v>
+      </c>
+      <c r="G16" s="10">
         <v>42324</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" ht="40.5" spans="1:9">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="10">
         <v>42326</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" ht="256.5" spans="1:9">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="7">
+        <v>67</v>
+      </c>
+      <c r="G18" s="10">
         <v>42326</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>49</v>
+        <v>69</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="7">
+        <v>70</v>
+      </c>
+      <c r="G19" s="10">
         <v>42326</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="H19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" ht="189" spans="1:9">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="G20" s="4"/>
+      <c r="H20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" ht="67.5" spans="1:9">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="G21" s="4"/>
+      <c r="H21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" ht="81" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="G22" s="4"/>
+      <c r="H22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" ht="27" spans="1:9">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48">
+      <formula1>$M$2:$M$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
     <sheet name="问题15" sheetId="2" r:id="rId2"/>
     <sheet name="问题17" sheetId="3" r:id="rId3"/>
     <sheet name="问题21" sheetId="4" r:id="rId4"/>
+    <sheet name="问题【23】" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>编号</t>
   </si>
@@ -302,18 +302,27 @@
   <si>
     <t>提供的表头</t>
   </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于角色对应权限列表里的权限移除，我还有疑问。请参照sheet【问题23】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当我们添加角色的时候，可以给他授权对应的权限，角色对应权限里的移除权限的操作是仅仅就删除这个角色里的权限还是将这个角色“asa”也删除掉？
+如果仅仅删除对应的权限，不删除角色的话，这个接口我没有在文档里找到，文档里提供了删除角色的接口，特提供了删除权限的接口，但是没有提供删除角色下权限的接口，
+我试着使用http://42.62.52.40:8000/role/role.node/permission/id， 例如：http://42.62.52.40:8000/role/21/permission/1，但是结果返回的是404. 请帮忙确认
+这个问题，谢谢。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -342,7 +351,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -392,23 +401,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -449,27 +443,432 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6143" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="352425"/>
+          <a:ext cx="9734550" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6144" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="5105400"/>
+          <a:ext cx="9858375" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6705600" cy="6400800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="180975"/>
+          <a:ext cx="7610475" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4391025"/>
+          <a:ext cx="7105650" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9934575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9934575" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,6 +1166,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -799,19 +1199,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.55833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="22.25" style="2" customWidth="1"/>
@@ -820,7 +1218,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -849,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:13">
+    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -879,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:13">
+    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -909,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="189" spans="1:13">
+    <row r="4" spans="1:13" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -939,7 +1337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:13">
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -969,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:9">
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -996,7 +1394,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="40.5" spans="1:9">
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1023,7 +1421,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" ht="27" spans="1:9">
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1050,7 +1448,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="54" spans="1:9">
+    <row r="9" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1077,7 +1475,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1102,7 +1500,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" ht="27" spans="1:9">
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1129,7 +1527,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="27" spans="1:9">
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1156,7 +1554,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" ht="27" spans="1:9">
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1185,7 +1583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:9">
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1214,7 +1612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" ht="40.5" spans="1:9">
+    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1243,7 +1641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="1:9">
+    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1270,7 +1668,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" ht="40.5" spans="1:9">
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1297,7 +1695,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" ht="256.5" spans="1:9">
+    <row r="18" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1324,7 +1722,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" ht="27" spans="1:9">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1351,7 +1749,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" ht="189" spans="1:9">
+    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1374,7 +1772,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" ht="67.5" spans="1:9">
+    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1397,7 +1795,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" ht="81" spans="1:9">
+    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1420,7 +1818,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" ht="27" spans="1:9">
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1443,18 +1841,30 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1465,7 +1875,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1476,7 +1886,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1487,7 +1897,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1498,7 +1908,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1509,7 +1919,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1520,7 +1930,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1531,7 +1941,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1542,7 +1952,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1553,7 +1963,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1564,7 +1974,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1575,7 +1985,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1586,7 +1996,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1597,7 +2007,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1608,7 +2018,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1619,7 +2029,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1630,7 +2040,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1641,7 +2051,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1652,7 +2062,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1663,7 +2073,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1674,7 +2084,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1685,7 +2095,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1696,7 +2106,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1707,7 +2117,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1719,95 +2129,117 @@
       <c r="I48" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H48">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:A14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="135.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="问题【23】" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>编号</t>
   </si>
@@ -291,6 +292,33 @@
     <t>没有找到相关资源元数据编辑的接口，请确认这个接口。</t>
   </si>
   <si>
+    <t>关于角色对应权限列表里的权限移除，我还有疑问。请参照sheet【问题23】</t>
+  </si>
+  <si>
+    <t>结构类型</t>
+  </si>
+  <si>
+    <t>列表中有checkbox，是否需要批量删除功能？目前接口文档中没有批量删除接口，如果需要批量删除，请提供批量删除接口。</t>
+  </si>
+  <si>
+    <t>元数据</t>
+  </si>
+  <si>
+    <t>元数据分类和标准tree返回的node_type 都是1，导致不能区分是元数据分类还是元数据标准，致使无法增加元数据</t>
+  </si>
+  <si>
+    <t>元数据列表查询处，第一个下拉款【必选元素】【可选元素】【分类元素】代表什么? 第一个下拉框是和第二个下框有没有级联关系？</t>
+  </si>
+  <si>
+    <t>Web服务配置</t>
+  </si>
+  <si>
+    <t>Web服务配置接口未提供</t>
+  </si>
+  <si>
+    <t>2015.11.22</t>
+  </si>
+  <si>
     <t>/encode?code=G</t>
   </si>
   <si>
@@ -301,28 +329,25 @@
   </si>
   <si>
     <t>提供的表头</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于角色对应权限列表里的权限移除，我还有疑问。请参照sheet【问题23】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>当我们添加角色的时候，可以给他授权对应的权限，角色对应权限里的移除权限的操作是仅仅就删除这个角色里的权限还是将这个角色“asa”也删除掉？
 如果仅仅删除对应的权限，不删除角色的话，这个接口我没有在文档里找到，文档里提供了删除角色的接口，特提供了删除权限的接口，但是没有提供删除角色下权限的接口，
 我试着使用http://42.62.52.40:8000/role/role.node/permission/id， 例如：http://42.62.52.40:8000/role/21/permission/1，但是结果返回的是404. 请帮忙确认
 这个问题，谢谢。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -351,7 +376,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -401,24 +426,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -443,432 +480,31 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6143" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="666750" y="352425"/>
-          <a:ext cx="9734550" cy="4695825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6144" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="695325" y="5105400"/>
-          <a:ext cx="9858375" cy="5048250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7169" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6705600" cy="6400800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="180975"/>
-          <a:ext cx="7610475" cy="3905250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4391025"/>
-          <a:ext cx="7105650" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9934575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9934575" cy="2171700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,7 +802,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1199,26 +834,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="22.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1240,21 +877,21 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" ht="54" spans="1:13">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1266,18 +903,18 @@
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="3"/>
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" ht="54" spans="1:13">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1293,21 +930,21 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="M3" s="2" t="s">
+      <c r="I3" s="3"/>
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="189" x14ac:dyDescent="0.15">
+    <row r="4" ht="189" spans="1:13">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1323,21 +960,21 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="M4" s="2" t="s">
+      <c r="I4" s="3"/>
+      <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" ht="27" spans="1:13">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1353,28 +990,28 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="M5" s="2" t="s">
+      <c r="I5" s="3"/>
+      <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="40.5" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1386,15 +1023,15 @@
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>42324</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1413,15 +1050,15 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>42324</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" ht="27" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1440,15 +1077,15 @@
       <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>42324</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" ht="54" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1467,15 +1104,15 @@
       <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>42324</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1494,13 +1131,13 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>42324</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" ht="27" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1519,15 +1156,15 @@
       <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>42324</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" ht="27" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1546,15 +1183,15 @@
       <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>42326</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1573,17 +1210,17 @@
       <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>42326</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1602,17 +1239,17 @@
       <c r="F14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>42324</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="40.5" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1631,51 +1268,51 @@
       <c r="F15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>42324</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>42324</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" ht="40.5" spans="1:9">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1684,18 +1321,18 @@
       <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>42326</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" ht="256.5" spans="1:9">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1714,15 +1351,15 @@
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>42326</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1732,7 +1369,7 @@
       <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1741,15 +1378,15 @@
       <c r="F19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>42326</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" ht="189" spans="1:9">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1767,12 +1404,12 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" ht="67.5" spans="1:9">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1790,12 +1427,12 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" ht="81" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1813,12 +1450,12 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" ht="27" spans="1:9">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1836,79 +1473,119 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" ht="40.5" spans="1:9">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" ht="54" spans="1:9">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" ht="54" spans="1:9">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" ht="54" spans="1:9">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1916,10 +1593,10 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1927,10 +1604,10 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1938,10 +1615,10 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1949,10 +1626,10 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1960,10 +1637,10 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1971,10 +1648,10 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1982,10 +1659,10 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1993,10 +1670,10 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2004,10 +1681,10 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2015,10 +1692,10 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2026,10 +1703,10 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2037,10 +1714,10 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2048,10 +1725,10 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2059,10 +1736,10 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2070,10 +1747,10 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2081,10 +1758,10 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2092,10 +1769,10 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2103,10 +1780,10 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2114,10 +1791,10 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2125,121 +1802,128 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H48">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>79</v>
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A13:A14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="135.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>84</v>
+    <row r="13" ht="35.25" customHeight="1"/>
+    <row r="14" ht="81" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>编号</t>
   </si>
@@ -319,6 +319,18 @@
     <t>2015.11.22</t>
   </si>
   <si>
+    <t>流媒体服务</t>
+  </si>
+  <si>
+    <t>流媒体配置接口未提供</t>
+  </si>
+  <si>
+    <t>存储服务</t>
+  </si>
+  <si>
+    <t>存储服务配置接口未提供</t>
+  </si>
+  <si>
     <t>/encode?code=G</t>
   </si>
   <si>
@@ -342,12 +354,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -373,11 +385,6 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -430,19 +437,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -841,7 +848,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1586,22 +1593,42 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -1833,12 +1860,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1882,12 +1909,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +1943,7 @@
     <row r="13" ht="35.25" customHeight="1"/>
     <row r="14" ht="81" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>编号</t>
   </si>
@@ -91,7 +91,35 @@
     <t>添加用户的时候，编号不能为空，如果为空，返回的content是序列号已经存在，这个逻辑应该是在后台实现的。</t>
   </si>
   <si>
-    <t>编号不能为空，添加用户时需要填写</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号不能为空,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可重复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，添加用户时需要填写</t>
+    </r>
   </si>
   <si>
     <t>未解决</t>
@@ -159,6 +187,9 @@
   </si>
   <si>
     <t>接口问题，马上提交进行调整</t>
+  </si>
+  <si>
+    <t>已测试，True、False首字母大写</t>
   </si>
   <si>
     <t>标签管理</t>
@@ -279,6 +310,9 @@
     <t>2015.11.19</t>
   </si>
   <si>
+    <t>接口貌似有所调整，待反馈</t>
+  </si>
+  <si>
     <t xml:space="preserve">更新资源的时候，按照最新的文档的参数传参，返回的是405， 请确认一下最新文档的参数是否正确。
 </t>
   </si>
@@ -286,30 +320,51 @@
     <t>2015.11.21</t>
   </si>
   <si>
+    <t>测试正常</t>
+  </si>
+  <si>
     <t>操作日志的列表显示的mockup是要这样的吗？我现在用的是来源统计这个接口，如果这个不对，你能提供一下我们需要使用哪个具体的接口吗？还有，必须要和给定的表头一致吗？参见sheet【问题21】</t>
   </si>
   <si>
+    <t>您调用的是统计接口，针对资源操作日志，需要一个额外的接口，目前未实现。</t>
+  </si>
+  <si>
     <t>没有找到相关资源元数据编辑的接口，请确认这个接口。</t>
   </si>
   <si>
+    <t>参见《资源库和资源相关文档》最后部分</t>
+  </si>
+  <si>
     <t>关于角色对应权限列表里的权限移除，我还有疑问。请参照sheet【问题23】</t>
   </si>
   <si>
+    <t>当前ui端实现的与接口设计不相符。设计的流程是这样：权限不提供修改接口，只有新建和删除。删除权限不需要删除角色，角色是可以修改的。</t>
+  </si>
+  <si>
     <t>结构类型</t>
   </si>
   <si>
     <t>列表中有checkbox，是否需要批量删除功能？目前接口文档中没有批量删除接口，如果需要批量删除，请提供批量删除接口。</t>
   </si>
   <si>
+    <t>不用批量删除，逐条删除需用户确认</t>
+  </si>
+  <si>
     <t>元数据</t>
   </si>
   <si>
     <t>元数据分类和标准tree返回的node_type 都是1，导致不能区分是元数据分类还是元数据标准，致使无法增加元数据</t>
   </si>
   <si>
+    <t>确实存在这个问题，已经提交接口方处理</t>
+  </si>
+  <si>
     <t>元数据列表查询处，第一个下拉款【必选元素】【可选元素】【分类元素】代表什么? 第一个下拉框是和第二个下框有没有级联关系？</t>
   </si>
   <si>
+    <t>必选元素、可选元素、分类元素是CELTS标准中对元数据标准的分类描述，相当于标准中的元数据项进行分类，没有层级关系</t>
+  </si>
+  <si>
     <t>Web服务配置</t>
   </si>
   <si>
@@ -317,6 +372,9 @@
   </si>
   <si>
     <t>2015.11.22</t>
+  </si>
+  <si>
+    <t>接口正在实现中</t>
   </si>
   <si>
     <t>流媒体服务</t>
@@ -354,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -846,9 +904,9 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -859,7 +917,9 @@
     <col min="4" max="5" width="22.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -937,7 +997,7 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1117,17 +1177,19 @@
       <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1136,7 +1198,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="9">
         <v>42324</v>
@@ -1149,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
@@ -1169,26 +1231,28 @@
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" ht="27" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10">
         <v>42326</v>
@@ -1203,19 +1267,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G13" s="10">
         <v>42326</v>
@@ -1224,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:9">
@@ -1232,19 +1296,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="9">
         <v>42324</v>
@@ -1253,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:9">
@@ -1261,19 +1325,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="9">
         <v>42324</v>
@@ -1282,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:9">
@@ -1290,19 +1354,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="9">
         <v>42324</v>
@@ -1320,16 +1384,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="9">
         <v>42326</v>
@@ -1344,19 +1408,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="9">
         <v>42326</v>
@@ -1371,19 +1435,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="9">
         <v>42326</v>
@@ -1398,19 +1462,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="9">
+        <v>42331</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1421,42 +1489,50 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="9">
+        <v>42331</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" ht="81" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="9">
+        <v>42331</v>
+      </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1467,25 +1543,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="9">
+        <v>42331</v>
+      </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" ht="40.5" spans="1:9">
+      <c r="I23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" ht="81" spans="1:9">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1493,16 +1573,20 @@
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="9">
+        <v>42331</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1513,19 +1597,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="9">
+        <v>42331</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
@@ -1534,61 +1622,73 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="9">
+        <v>42331</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" ht="54" spans="1:9">
+    <row r="27" ht="81" spans="1:9">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="9">
+        <v>42331</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="9">
+        <v>42331</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -1597,19 +1697,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="9">
+        <v>42331</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
@@ -1618,19 +1722,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="9">
+        <v>42331</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1834,7 +1942,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30 H31:H48">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1860,12 +1968,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1909,12 +2017,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +2051,7 @@
     <row r="13" ht="35.25" customHeight="1"/>
     <row r="14" ht="81" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,11 @@
     <sheet name="问题【23】" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
   <si>
     <t>编号</t>
   </si>
@@ -406,18 +405,33 @@
 我试着使用http://42.62.52.40:8000/role/role.node/permission/id， 例如：http://42.62.52.40:8000/role/21/permission/1，但是结果返回的是404. 请帮忙确认
 这个问题，谢谢。</t>
   </si>
+  <si>
+    <t>应用管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加专题的接口参数在文档定义如下：
+is_publish
+  * type: boolean
+  * 举例: "0","1"
+  * 可否为空: yes, 默认值为0，表示该专题不可发布
+我这边传的参数选择发布的时候参数值为1,选择禁用时参数值为0，但是无论我传哪个参数，接口返回的结果都是true。请帮忙确认这个接口返回值的正确性。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -443,6 +457,11 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -491,23 +510,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -545,31 +549,445 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8190" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="352425"/>
+          <a:ext cx="9734550" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8191" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="5105400"/>
+          <a:ext cx="9858375" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10240" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6705600" cy="6400800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11266" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="180975"/>
+          <a:ext cx="7610475" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11265" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4391025"/>
+          <a:ext cx="7105650" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9934575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9934575" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,6 +1285,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -899,17 +1318,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
@@ -922,7 +1339,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -951,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:13">
+    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -981,7 +1398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:13">
+    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1011,7 +1428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="189" spans="1:13">
+    <row r="4" spans="1:13" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1041,7 +1458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:13">
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1071,7 +1488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:9">
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1098,7 +1515,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="40.5" spans="1:9">
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1125,7 +1542,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="27" spans="1:9">
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1152,7 +1569,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="54" spans="1:9">
+    <row r="9" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1181,7 +1598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1206,7 +1623,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="27" spans="1:9">
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1235,7 +1652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:9">
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1262,7 +1679,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="27" spans="1:9">
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1291,7 +1708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:9">
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1320,7 +1737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="40.5" spans="1:9">
+    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1349,7 +1766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="1:9">
+    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1376,7 +1793,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="40.5" spans="1:9">
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1403,7 +1820,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" ht="256.5" spans="1:9">
+    <row r="18" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1430,7 +1847,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" ht="27" spans="1:9">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1457,7 +1874,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" ht="189" spans="1:9">
+    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1484,7 +1901,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" ht="67.5" spans="1:9">
+    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1511,7 +1928,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" ht="81" spans="1:9">
+    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1538,7 +1955,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" ht="27" spans="1:9">
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1565,7 +1982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" ht="81" spans="1:9">
+    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1592,7 +2009,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" ht="54" spans="1:9">
+    <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1617,7 +2034,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" ht="54" spans="1:9">
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1642,7 +2059,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" ht="81" spans="1:9">
+    <row r="27" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1667,7 +2084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1692,7 +2109,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1717,7 +2134,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1742,18 +2159,28 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+    <row r="31" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1764,7 +2191,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1775,7 +2202,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1786,7 +2213,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1797,7 +2224,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1808,7 +2235,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1819,7 +2246,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1830,7 +2257,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1841,7 +2268,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1852,7 +2279,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1863,7 +2290,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1874,7 +2301,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1885,7 +2312,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1896,7 +2323,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1907,7 +2334,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1918,7 +2345,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1929,7 +2356,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1941,124 +2368,119 @@
       <c r="I48" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30 H31:H48">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="135.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" ht="35.25" customHeight="1"/>
-    <row r="14" ht="81" spans="1:1">
+    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,16 @@
     <sheet name="问题21" sheetId="4" r:id="rId4"/>
     <sheet name="问题【23】" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$32</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>编号</t>
   </si>
@@ -388,50 +392,49 @@
     <t>存储服务配置接口未提供</t>
   </si>
   <si>
-    <t>/encode?code=G</t>
-  </si>
-  <si>
-    <t>按编码查询，结果集中编码项有重复</t>
-  </si>
-  <si>
-    <t>改完后的</t>
-  </si>
-  <si>
-    <t>提供的表头</t>
-  </si>
-  <si>
-    <t>当我们添加角色的时候，可以给他授权对应的权限，角色对应权限里的移除权限的操作是仅仅就删除这个角色里的权限还是将这个角色“asa”也删除掉？
-如果仅仅删除对应的权限，不删除角色的话，这个接口我没有在文档里找到，文档里提供了删除角色的接口，特提供了删除权限的接口，但是没有提供删除角色下权限的接口，
-我试着使用http://42.62.52.40:8000/role/role.node/permission/id， 例如：http://42.62.52.40:8000/role/21/permission/1，但是结果返回的是404. 请帮忙确认
-这个问题，谢谢。</t>
-  </si>
-  <si>
-    <t>应用管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>添加专题的接口参数在文档定义如下：
 is_publish
   * type: boolean
   * 举例: "0","1"
   * 可否为空: yes, 默认值为0，表示该专题不可发布
 我这边传的参数选择发布的时候参数值为1,选择禁用时参数值为0，但是无论我传哪个参数，接口返回的结果都是true。请帮忙确认这个接口返回值的正确性。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2015.11.24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除接口未提供</t>
+  </si>
+  <si>
+    <t>/encode?code=G</t>
+  </si>
+  <si>
+    <t>按编码查询，结果集中编码项有重复</t>
+  </si>
+  <si>
+    <t>改完后的</t>
+  </si>
+  <si>
+    <t>提供的表头</t>
+  </si>
+  <si>
+    <t>当我们添加角色的时候，可以给他授权对应的权限，角色对应权限里的移除权限的操作是仅仅就删除这个角色里的权限还是将这个角色“asa”也删除掉？
+如果仅仅删除对应的权限，不删除角色的话，这个接口我没有在文档里找到，文档里提供了删除角色的接口，特提供了删除权限的接口，但是没有提供删除角色下权限的接口，
+我试着使用http://42.62.52.40:8000/role/role.node/permission/id， 例如：http://42.62.52.40:8000/role/21/permission/1，但是结果返回的是404. 请帮忙确认
+这个问题，谢谢。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -460,7 +463,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -473,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -509,13 +512,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -539,6 +568,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -549,445 +584,31 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8190" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="666750" y="352425"/>
-          <a:ext cx="9734550" cy="4695825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8191" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="695325" y="5105400"/>
-          <a:ext cx="9858375" cy="5048250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10240" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6705600" cy="6400800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11266" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="180975"/>
-          <a:ext cx="7610475" cy="3905250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11265" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4391025"/>
-          <a:ext cx="7105650" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9934575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5121" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9934575" cy="2171700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,7 +906,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1318,15 +938,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
@@ -1339,7 +961,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" ht="54" hidden="1" spans="1:13">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1398,7 +1020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" ht="54" hidden="1" spans="1:13">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1428,7 +1050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="189" x14ac:dyDescent="0.15">
+    <row r="4" ht="189" hidden="1" spans="1:13">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1441,13 +1063,13 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1458,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" ht="27" hidden="1" spans="1:13">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1488,14 +1110,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="40.5" hidden="1" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1507,7 +1129,7 @@
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>42324</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1515,7 +1137,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="40.5" hidden="1" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1534,7 +1156,7 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>42324</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1542,7 +1164,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" ht="27" hidden="1" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1561,7 +1183,7 @@
       <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>42324</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1569,7 +1191,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" ht="54" hidden="1" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1588,17 +1210,17 @@
       <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>42324</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" hidden="1" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1617,13 +1239,15 @@
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>42324</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" ht="27" hidden="1" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1642,17 +1266,17 @@
       <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>42324</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" ht="27" hidden="1" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1671,7 +1295,7 @@
       <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>42326</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1679,7 +1303,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" ht="27" hidden="1" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1695,20 +1319,20 @@
       <c r="E13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="12">
         <v>42326</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" ht="27" hidden="1" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1727,7 +1351,7 @@
       <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>42324</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1737,7 +1361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="40.5" hidden="1" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1756,7 +1380,7 @@
       <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>42324</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1766,26 +1390,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="40.5" hidden="1" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>42324</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1793,14 +1417,14 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="40.5" hidden="1" spans="1:9">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1809,10 +1433,10 @@
       <c r="E17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>42326</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1820,14 +1444,14 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="18" ht="256.5" hidden="1" spans="1:9">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1839,7 +1463,7 @@
       <c r="F18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="11">
         <v>42326</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1847,7 +1471,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1857,7 +1481,7 @@
       <c r="C19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1866,22 +1490,22 @@
       <c r="F19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="11">
         <v>42326</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+    <row r="20" ht="189" spans="1:9">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1890,10 +1514,10 @@
       <c r="E20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="11">
         <v>42331</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1901,14 +1525,14 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="21" ht="67.5" hidden="1" spans="1:9">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1918,24 +1542,24 @@
         <v>77</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="9">
+      <c r="G21" s="11">
         <v>42331</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" ht="81" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1944,10 +1568,10 @@
       <c r="E22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="11">
         <v>42331</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -1955,14 +1579,14 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" ht="27" hidden="1" spans="1:9">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1972,17 +1596,17 @@
         <v>77</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="9">
+      <c r="G23" s="11">
         <v>42331</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="24" ht="81" hidden="1" spans="1:9">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2001,15 +1625,15 @@
       <c r="F24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="11">
         <v>42331</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="25" ht="54" hidden="1" spans="1:9">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2025,16 +1649,18 @@
       <c r="E25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="11">
         <v>42331</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="26" ht="54" spans="1:9">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2050,16 +1676,18 @@
       <c r="E26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="11">
         <v>42331</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="27" ht="81" hidden="1" spans="1:9">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2076,15 +1704,17 @@
         <v>77</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="9">
+      <c r="G27" s="11">
         <v>42331</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I27" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2100,16 +1730,18 @@
       <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="11">
         <v>42331</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2125,16 +1757,18 @@
       <c r="E29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="11">
         <v>42331</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2150,48 +1784,60 @@
       <c r="E30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="11">
         <v>42331</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+    <row r="31" ht="162" spans="1:9">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+    <row r="32" spans="1:9">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2202,7 +1848,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2213,7 +1859,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2224,7 +1870,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2235,7 +1881,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2246,7 +1892,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2257,7 +1903,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2268,7 +1914,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2279,7 +1925,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2290,7 +1936,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2301,7 +1947,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2312,7 +1958,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2323,7 +1969,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2334,7 +1980,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2345,7 +1991,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2356,7 +2002,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2368,119 +2014,132 @@
       <c r="I48" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:I32">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="equal" val=""/>
+        <customFilter operator="equal" val="未解决"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30 H31:H48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31 H32 H2:H30 H33:H48">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A13:A14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="135.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
+    <row r="13" ht="35.25" customHeight="1"/>
+    <row r="14" ht="81" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -14,7 +14,7 @@
     <sheet name="问题【23】" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$I$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$M$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>编号</t>
   </si>
@@ -302,6 +302,9 @@
     <t>该问题已提交接口方</t>
   </si>
   <si>
+    <t>接口已经调整完成</t>
+  </si>
+  <si>
     <t>资源管理和应用管理</t>
   </si>
   <si>
@@ -316,6 +319,9 @@
     <t>接口貌似有所调整，待反馈</t>
   </si>
   <si>
+    <t>正在解决中，时间待反馈</t>
+  </si>
+  <si>
     <t xml:space="preserve">更新资源的时候，按照最新的文档的参数传参，返回的是405， 请确认一下最新文档的参数是否正确。
 </t>
   </si>
@@ -330,6 +336,9 @@
   </si>
   <si>
     <t>您调用的是统计接口，针对资源操作日志，需要一个额外的接口，目前未实现。</t>
+  </si>
+  <si>
+    <t>月底实现</t>
   </si>
   <si>
     <t>没有找到相关资源元数据编辑的接口，请确认这个接口。</t>
@@ -403,7 +412,13 @@
     <t>2015.11.24</t>
   </si>
   <si>
+    <t>创建专题，无论是是否同意发布，都会创建成功。Is_publish 值只是用来控制专题发布的。</t>
+  </si>
+  <si>
     <t>批量删除接口未提供</t>
+  </si>
+  <si>
+    <t>不需要批量删除，逐条删除即可，建议删除前加个确认框。</t>
   </si>
   <si>
     <t>/encode?code=G</t>
@@ -429,12 +444,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -462,11 +477,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -476,7 +486,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -512,39 +522,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,12 +562,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,12 +933,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -957,11 +950,11 @@
     <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -990,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="54" hidden="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="54" hidden="1" spans="1:13">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1016,11 +1009,14 @@
         <v>15</v>
       </c>
       <c r="I2" s="3"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="54" hidden="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="54" hidden="1" spans="1:13">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1046,11 +1042,14 @@
         <v>15</v>
       </c>
       <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="189" hidden="1" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="189" hidden="1" spans="1:13">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1063,24 +1062,27 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="3"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="27" hidden="1" spans="1:13">
+    <row r="5" s="1" customFormat="1" ht="27" hidden="1" spans="1:13">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1106,18 +1108,21 @@
         <v>15</v>
       </c>
       <c r="I5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="40.5" hidden="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1129,7 +1134,7 @@
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>42324</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1137,7 +1142,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="40.5" hidden="1" spans="1:9">
+    <row r="7" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1156,7 +1161,7 @@
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>42324</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1164,7 +1169,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" ht="27" hidden="1" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1183,7 +1188,7 @@
       <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>42324</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1191,7 +1196,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="54" hidden="1" spans="1:9">
+    <row r="9" s="1" customFormat="1" ht="54" hidden="1" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1210,7 +1215,7 @@
       <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>42324</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1220,7 +1225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:9">
+    <row r="10" s="1" customFormat="1" hidden="1" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1239,7 +1244,7 @@
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>42324</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1247,7 +1252,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" ht="27" hidden="1" spans="1:9">
+    <row r="11" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1266,7 +1271,7 @@
       <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>42324</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1276,7 +1281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="27" hidden="1" spans="1:9">
+    <row r="12" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1295,7 +1300,7 @@
       <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>42326</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1303,7 +1308,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" ht="27" hidden="1" spans="1:9">
+    <row r="13" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1319,10 +1324,10 @@
       <c r="E13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>42326</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1332,7 +1337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="27" hidden="1" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1351,7 +1356,7 @@
       <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>42324</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1361,7 +1366,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="40.5" hidden="1" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1380,7 +1385,7 @@
       <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>42324</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1390,26 +1395,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="40.5" hidden="1" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>42324</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1417,14 +1422,14 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" ht="40.5" hidden="1" spans="1:9">
+    <row r="17" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1433,10 +1438,10 @@
       <c r="E17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>42326</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1444,14 +1449,14 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" ht="256.5" hidden="1" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="256.5" hidden="1" spans="1:9">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1463,7 +1468,7 @@
       <c r="F18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>42326</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1471,7 +1476,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" ht="27" spans="1:9">
+    <row r="19" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1481,7 +1486,7 @@
       <c r="C19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1490,123 +1495,129 @@
       <c r="F19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>42326</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" ht="189" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="189" spans="1:9">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="10" t="s">
         <v>73</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="11">
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="9">
         <v>42331</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" ht="67.5" hidden="1" spans="1:9">
+      <c r="I20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="67.5" hidden="1" spans="1:9">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>76</v>
+      <c r="C21" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="11">
+      <c r="G21" s="9">
         <v>42331</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" ht="81" spans="1:9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="81" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>79</v>
+      <c r="C22" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="11">
+        <v>79</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="9">
         <v>42331</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" ht="27" hidden="1" spans="1:9">
+      <c r="I22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>81</v>
+      <c r="C23" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="11">
+      <c r="G23" s="9">
         <v>42331</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" ht="81" hidden="1" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="81" hidden="1" spans="1:9">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1614,18 +1625,18 @@
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="11">
+        <v>87</v>
+      </c>
+      <c r="G24" s="9">
         <v>42331</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1633,26 +1644,26 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" ht="54" hidden="1" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="54" hidden="1" spans="1:9">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="11">
+        <v>79</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="9">
         <v>42331</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -1660,142 +1671,150 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" ht="54" spans="1:9">
+    <row r="26" s="1" customFormat="1" ht="54" spans="1:9">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="11">
+        <v>79</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="9">
         <v>42331</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" ht="81" hidden="1" spans="1:9">
+      <c r="I26" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="67.5" hidden="1" spans="1:9">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="11">
+      <c r="G27" s="9">
         <v>42331</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:9">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="11">
+        <v>98</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="9">
         <v>42331</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:9">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="11">
+        <v>98</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="9">
         <v>42331</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:9">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="11">
+        <v>98</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="9">
         <v>42331</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" ht="162" spans="1:9">
+      <c r="I30" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="162" hidden="1" spans="1:9">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1803,20 +1822,24 @@
         <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1824,20 +1847,24 @@
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="H32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:9">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1848,7 +1875,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" s="1" customFormat="1" spans="1:9">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1859,7 +1886,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" s="1" customFormat="1" spans="1:9">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1870,7 +1897,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" s="1" customFormat="1" spans="1:9">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1881,7 +1908,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" s="1" customFormat="1" spans="1:9">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1892,7 +1919,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" s="1" customFormat="1" spans="1:9">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1903,7 +1930,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" s="1" customFormat="1" spans="1:9">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1914,7 +1941,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" s="1" customFormat="1" spans="1:9">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1925,7 +1952,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" s="1" customFormat="1" spans="1:9">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1936,7 +1963,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" s="1" customFormat="1" spans="1:9">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1947,7 +1974,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" s="1" customFormat="1" spans="1:9">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1958,7 +1985,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" s="1" customFormat="1" spans="1:9">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1969,7 +1996,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" s="1" customFormat="1" spans="1:9">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1980,7 +2007,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" s="1" customFormat="1" spans="1:9">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1991,7 +2018,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" s="1" customFormat="1" spans="1:9">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2002,7 +2029,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" s="1" customFormat="1" spans="1:9">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2013,17 +2040,27 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
+    <row r="49" s="1" customFormat="1" spans="1:9">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I32">
+  <autoFilter ref="A1:M32">
     <filterColumn colId="7">
       <customFilters>
-        <customFilter operator="equal" val=""/>
         <customFilter operator="equal" val="未解决"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31 H32 H2:H30 H33:H48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H49">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2049,12 +2086,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2098,12 +2135,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2169,7 @@
     <row r="13" ht="35.25" customHeight="1"/>
     <row r="14" ht="81" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$M$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="119">
   <si>
     <t>编号</t>
   </si>
@@ -438,18 +437,33 @@
 我试着使用http://42.62.52.40:8000/role/role.node/permission/id， 例如：http://42.62.52.40:8000/role/21/permission/1，但是结果返回的是404. 请帮忙确认
 这个问题，谢谢。</t>
   </si>
+  <si>
+    <t>应用管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11.28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于问题30，我还有问题。
+我的问题是，不管页面选择发布还是禁用，专题都会创建成功，但是不论我选择发布还是禁用，接口返回的结果都是发布，我觉得如果我选择的是禁用，专题创建成功后接口返回值应该是false，发布这项值应该显示禁用，而不是不论我选择哪个返回的值都是（true）发布。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -475,6 +489,11 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -523,23 +542,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -577,31 +581,445 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10237" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="352425"/>
+          <a:ext cx="9734550" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10238" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="5105400"/>
+          <a:ext cx="9858375" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13311" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6705600" cy="6400800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15361" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="180975"/>
+          <a:ext cx="7610475" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15360" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4391025"/>
+          <a:ext cx="7105650" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9934575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16385" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9934575" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,6 +1317,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -931,17 +1350,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
@@ -954,7 +1371,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="54" hidden="1" spans="1:13">
+    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1009,14 +1426,11 @@
         <v>15</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="54" hidden="1" spans="1:13">
+    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1042,14 +1456,11 @@
         <v>15</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="189" hidden="1" spans="1:13">
+    <row r="4" spans="1:13" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1075,14 +1486,11 @@
         <v>15</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="27" hidden="1" spans="1:13">
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1108,14 +1516,11 @@
         <v>15</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1142,7 +1547,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1169,7 +1574,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1196,7 +1601,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="54" hidden="1" spans="1:9">
+    <row r="9" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1225,7 +1630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" hidden="1" spans="1:9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1252,7 +1657,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1281,7 +1686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1308,7 +1713,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1337,7 +1742,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1366,7 +1771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1395,7 +1800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1422,7 +1827,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1449,7 +1854,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="256.5" hidden="1" spans="1:9">
+    <row r="18" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1476,7 +1881,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1505,7 +1910,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="189" spans="1:9">
+    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1534,7 +1939,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="67.5" hidden="1" spans="1:9">
+    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1561,7 +1966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1590,7 +1995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1617,7 +2022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="81" hidden="1" spans="1:9">
+    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1644,7 +2049,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="54" hidden="1" spans="1:9">
+    <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1671,7 +2076,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="54" spans="1:9">
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1700,7 +2105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="67.5" hidden="1" spans="1:9">
+    <row r="27" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1727,7 +2132,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1756,7 +2161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1785,7 +2190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1814,12 +2219,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="162" hidden="1" spans="1:9">
+    <row r="31" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>104</v>
@@ -1839,7 +2244,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1864,18 +2269,28 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:9">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1886,7 +2301,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1897,7 +2312,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1908,7 +2323,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1919,7 +2334,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1930,7 +2345,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1941,7 +2356,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1952,7 +2367,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1963,7 +2378,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1974,7 +2389,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1985,7 +2400,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1996,7 +2411,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2007,7 +2422,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2018,7 +2433,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2029,7 +2444,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2040,7 +2455,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2052,131 +2467,120 @@
       <c r="I49" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M32">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="equal" val="未解决"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M32"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H49">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="135.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" ht="35.25" customHeight="1"/>
-    <row r="14" ht="81" spans="1:1">
+    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
   <si>
     <t>编号</t>
   </si>
@@ -343,9 +343,6 @@
     <t>没有找到相关资源元数据编辑的接口，请确认这个接口。</t>
   </si>
   <si>
-    <t>参见《资源库和资源相关文档》最后部分</t>
-  </si>
-  <si>
     <t>关于角色对应权限列表里的权限移除，我还有疑问。请参照sheet【问题23】</t>
   </si>
   <si>
@@ -456,6 +453,22 @@
   <si>
     <t>关于问题30，我还有问题。
 我的问题是，不管页面选择发布还是禁用，专题都会创建成功，但是不论我选择发布还是禁用，接口返回的结果都是发布，我觉得如果我选择的是禁用，专题创建成功后接口返回值应该是false，发布这项值应该显示禁用，而不是不论我选择哪个返回的值都是（true）发布。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参见《资源库和资源相关文档》最后部分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据编辑模块，我这边输入值去更新，接口返回的也是200， 但是值没有真正的更新到DB中，请后台确认。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源基本信息的编辑，name能更新吗？现在的接口中name是不会被更新，请确认这个是否能被更新。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1354,8 +1367,8 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2019,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.15">
@@ -2030,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
@@ -2039,7 +2052,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="9">
         <v>42331</v>
@@ -2054,10 +2067,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>61</v>
@@ -2066,7 +2079,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="9">
         <v>42331</v>
@@ -2081,10 +2094,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>61</v>
@@ -2093,7 +2106,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="9">
         <v>42331</v>
@@ -2110,10 +2123,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>61</v>
@@ -2129,7 +2142,7 @@
         <v>15</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2137,19 +2150,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="G28" s="9">
         <v>42331</v>
@@ -2166,19 +2179,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="G29" s="9">
         <v>42331</v>
@@ -2195,19 +2208,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>42331</v>
@@ -2224,16 +2237,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
@@ -2241,7 +2254,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -2252,13 +2265,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
@@ -2266,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -2274,39 +2287,59 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+    <row r="34" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+    <row r="35" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
       <c r="H35" s="3"/>
@@ -2484,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2495,12 +2528,12 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2540,12 +2573,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2573,7 +2606,7 @@
     <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>编号</t>
   </si>
@@ -389,7 +389,7 @@
     <t>2015.11.22</t>
   </si>
   <si>
-    <t>接口正在实现中</t>
+    <t>接口正在实现中，暂时不用管</t>
   </si>
   <si>
     <t>流媒体服务</t>
@@ -431,12 +431,21 @@
     <t>2015.11.28</t>
   </si>
   <si>
+    <t>确实存在这个问题，不过我测试的结果都是返回false。已经提交接口方处理</t>
+  </si>
+  <si>
     <t>元数据编辑模块，我这边输入值去更新，接口返回的也是200， 但是值没有真正的更新到DB中，请后台确认。</t>
   </si>
   <si>
+    <t>测试未发现问题，请问是资源管理当中，元数据编辑吗？还是我测试的地方不对。</t>
+  </si>
+  <si>
     <t>资源基本信息的编辑，name能更新吗？现在的接口中name是不会被更新，请确认这个是否能被更新。</t>
   </si>
   <si>
+    <t>正常应该可以更新，接口问题</t>
+  </si>
+  <si>
     <t>转码服务-转码配置</t>
   </si>
   <si>
@@ -446,6 +455,9 @@
     <t>2015.11.29</t>
   </si>
   <si>
+    <t>暂时不用管</t>
+  </si>
+  <si>
     <t>此问题web服务配置也有</t>
   </si>
   <si>
@@ -455,6 +467,9 @@
     <t>根据新提供接口（转码服务API接口设计文档V5.pdf），现有的页面不满足新接口，需加一个【转码服务注册名称】字段，而且ip和端口是调用配置完成后，由接口返回的。我将页面字段调整了一下，请确认，参照【问题37】sheet</t>
   </si>
   <si>
+    <t>已联系开发人员，确认后回复</t>
+  </si>
+  <si>
     <t>服务器配置信息接口，调用时报跨域问题，可能需要服务端设置跨域请求，请参照【问题38】sheet中的截图</t>
   </si>
   <si>
@@ -470,6 +485,10 @@
     <t>1.当前转码文件列表，移除操作对应的接口未提供；2.当前转码队列查询接口中返回字段与页面字段不匹配，是按照接口提供的走吗，请参照【问题40】sheet截图</t>
   </si>
   <si>
+    <t>1.接口正在实现中，暂时不用管
+2. 《转码服务API接口设计文档V5.pdf》文档中队列返回包含了页面上的字段</t>
+  </si>
+  <si>
     <t>转码服务-已转码文件</t>
   </si>
   <si>
@@ -486,6 +505,9 @@
   </si>
   <si>
     <t>1.转码数量监测接口未提供；2.内存&amp;cpu状态监测接口返回结果是当前时刻的数据还是某一个时间段的数据？希望能说明一下。</t>
+  </si>
+  <si>
+    <t>1.接口还在实现中 2.状态监测反应的是当前时刻直到关闭期间的状态</t>
   </si>
   <si>
     <t>/encode?code=G</t>
@@ -531,10 +553,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -563,7 +585,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -572,12 +596,6 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -630,25 +648,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,9 +1080,9 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1080,7 +1098,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="54" hidden="1" spans="1:13">
+    <row r="2" s="2" customFormat="1" ht="54" hidden="1" spans="1:13">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1135,11 +1153,14 @@
         <v>15</v>
       </c>
       <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="54" hidden="1" spans="1:13">
+    <row r="3" s="2" customFormat="1" ht="54" hidden="1" spans="1:13">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1165,11 +1186,14 @@
         <v>15</v>
       </c>
       <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="189" hidden="1" spans="1:13">
+    <row r="4" s="2" customFormat="1" ht="189" hidden="1" spans="1:13">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1195,11 +1219,14 @@
         <v>15</v>
       </c>
       <c r="I4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="27" hidden="1" spans="1:13">
+    <row r="5" s="2" customFormat="1" ht="27" hidden="1" spans="1:13">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1225,11 +1252,14 @@
         <v>15</v>
       </c>
       <c r="I5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="40.5" hidden="1" spans="1:9">
+    <row r="6" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1256,7 +1286,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="40.5" hidden="1" spans="1:9">
+    <row r="7" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1283,7 +1313,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="27" hidden="1" spans="1:9">
+    <row r="8" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1310,7 +1340,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="54" hidden="1" spans="1:9">
+    <row r="9" s="2" customFormat="1" ht="54" hidden="1" spans="1:9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1339,7 +1369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:9">
+    <row r="10" s="2" customFormat="1" hidden="1" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1366,7 +1396,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" ht="27" hidden="1" spans="1:9">
+    <row r="11" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1395,7 +1425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="27" hidden="1" spans="1:9">
+    <row r="12" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1422,7 +1452,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" ht="27" hidden="1" spans="1:9">
+    <row r="13" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1451,7 +1481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="27" hidden="1" spans="1:9">
+    <row r="14" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1480,7 +1510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="40.5" hidden="1" spans="1:9">
+    <row r="15" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="40.5" hidden="1" spans="1:9">
+    <row r="16" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1536,7 +1566,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" ht="40.5" hidden="1" spans="1:9">
+    <row r="17" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1563,7 +1593,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" ht="256.5" hidden="1" spans="1:9">
+    <row r="18" s="2" customFormat="1" ht="256.5" hidden="1" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1590,7 +1620,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" ht="27" hidden="1" spans="1:9">
+    <row r="19" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1619,7 +1649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="189" spans="1:9">
+    <row r="20" s="2" customFormat="1" ht="189" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1648,7 +1678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" ht="67.5" hidden="1" spans="1:9">
+    <row r="21" s="2" customFormat="1" ht="67.5" hidden="1" spans="1:9">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1675,7 +1705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" ht="81" spans="1:9">
+    <row r="22" s="2" customFormat="1" ht="81" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1704,7 +1734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" ht="27" hidden="1" spans="1:9">
+    <row r="23" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1731,7 +1761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" ht="81" hidden="1" spans="1:9">
+    <row r="24" s="2" customFormat="1" ht="81" hidden="1" spans="1:9">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1758,7 +1788,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" ht="54" hidden="1" spans="1:9">
+    <row r="25" s="2" customFormat="1" ht="54" hidden="1" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1785,7 +1815,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" ht="54" spans="1:9">
+    <row r="26" s="2" customFormat="1" ht="54" hidden="1" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1808,13 +1838,13 @@
         <v>42331</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" ht="67.5" hidden="1" spans="1:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="67.5" hidden="1" spans="1:9">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1841,7 +1871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" s="2" customFormat="1" ht="27" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1870,7 +1900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" s="2" customFormat="1" ht="27" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1899,7 +1929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" s="2" customFormat="1" ht="27" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1928,7 +1958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" ht="162" hidden="1" spans="1:9">
+    <row r="31" s="2" customFormat="1" ht="162" hidden="1" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1953,7 +1983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" ht="40.5" hidden="1" spans="1:9">
+    <row r="32" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1978,7 +2008,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" ht="135" spans="1:9">
+    <row r="33" s="2" customFormat="1" ht="135" spans="1:9">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1994,14 +2024,18 @@
       <c r="E33" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="10">
+        <v>42338</v>
+      </c>
       <c r="H33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" ht="54" spans="1:9">
+    <row r="34" s="2" customFormat="1" ht="54" spans="1:9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2009,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
@@ -2017,14 +2051,18 @@
       <c r="E34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="10">
+        <v>42338</v>
+      </c>
       <c r="H34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" ht="54" spans="1:9">
+    <row r="35" s="2" customFormat="1" ht="54" spans="1:9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2032,7 +2070,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
@@ -2040,219 +2078,259 @@
       <c r="E35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="10">
+        <v>42338</v>
+      </c>
       <c r="H35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" ht="27" spans="1:9">
+    <row r="36" s="2" customFormat="1" ht="27" spans="1:9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="10">
+        <v>42338</v>
+      </c>
       <c r="H36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="27" spans="1:9">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="10">
+        <v>42338</v>
+      </c>
       <c r="H37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" ht="94.5" spans="1:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="94.5" spans="1:9">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="10">
+        <v>42339</v>
+      </c>
       <c r="H38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" ht="54" spans="1:9">
+    <row r="39" s="2" customFormat="1" ht="54" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="10">
+        <v>42339</v>
+      </c>
       <c r="H39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" s="2" customFormat="1" spans="1:9">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="10">
+        <v>42338</v>
+      </c>
       <c r="H40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" ht="67.5" spans="1:9">
+    <row r="41" s="2" customFormat="1" ht="67.5" spans="1:9">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="10">
+        <v>42339</v>
+      </c>
       <c r="H41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" s="2" customFormat="1" ht="27" spans="1:9">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="10">
+        <v>42338</v>
+      </c>
       <c r="H42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" s="2" customFormat="1" ht="27" spans="1:9">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="10">
+        <v>42338</v>
+      </c>
       <c r="H43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" ht="54" spans="1:9">
+    <row r="44" s="2" customFormat="1" ht="54" spans="1:9">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="10">
+        <v>42338</v>
+      </c>
       <c r="H44" s="4" t="s">
         <v>18</v>
       </c>
@@ -2333,7 +2411,7 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H36 H37 H38 H39 H40 H41 H42 H43 H44 H2:H35 H45:H50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44 H45:H50">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2359,12 +2437,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2408,12 +2486,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2520,7 @@
     <row r="13" ht="35.25" customHeight="1"/>
     <row r="14" ht="81" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2467,12 +2545,12 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2575,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2527,17 +2605,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$M$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="151">
   <si>
     <t>编号</t>
   </si>
@@ -545,18 +544,24 @@
   <si>
     <t>页面列名</t>
   </si>
+  <si>
+    <t>资源管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于问题33， 是资源管理当中的元数据编辑，我这边调用接口后，返回200，但是数据没有任何更新。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -585,16 +590,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -644,29 +640,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,45 +682,1046 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12284" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="352425"/>
+          <a:ext cx="9734550" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12285" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="5105400"/>
+          <a:ext cx="9858375" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16382" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6705600" cy="6400800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19456" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="180975"/>
+          <a:ext cx="7610475" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19455" name="图片 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4391025"/>
+          <a:ext cx="7105650" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9934575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21504" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9934575" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6146" name="图片 2" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="704850"/>
+          <a:ext cx="7315200" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6147" name="矩形 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1695450" y="1571625"/>
+          <a:ext cx="2390775" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6149" name="图片 5" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="5143500"/>
+          <a:ext cx="7315200" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6150" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1685925" y="5838825"/>
+          <a:ext cx="2390775" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="342900"/>
+          <a:ext cx="8239125" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7170" name="矩形 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="3028950"/>
+          <a:ext cx="8543925" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="BBD5F0">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8196" name="组合 4"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1400175" y="552450"/>
+          <a:ext cx="8143875" cy="4572000"/>
+          <a:chOff x="2182" y="795"/>
+          <a:chExt cx="12830" cy="7214"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8193" name="图片 1" descr="rId1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2182" y="795"/>
+            <a:ext cx="12830" cy="7214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8194" name="矩形 2"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5205" y="4560"/>
+            <a:ext cx="8490" cy="2460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:miter lim="200000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="BBD5F0">
+                    <a:alpha val="0"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8200" name="组合 8"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1390650" y="5476875"/>
+          <a:ext cx="9448800" cy="5305425"/>
+          <a:chOff x="2198" y="8626"/>
+          <a:chExt cx="14884" cy="8368"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8197" name="图片 5" descr="rId2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2198" y="8626"/>
+            <a:ext cx="14884" cy="8369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8198" name="矩形 6"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4395" y="10545"/>
+            <a:ext cx="12585" cy="870"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:miter lim="200000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="BBD5F0"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,6 +2019,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1075,17 +2052,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
@@ -1098,7 +2074,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +2103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="54" hidden="1" spans="1:13">
+    <row r="2" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1153,14 +2129,11 @@
         <v>15</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="54" hidden="1" spans="1:13">
+    <row r="3" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1186,14 +2159,11 @@
         <v>15</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="189" hidden="1" spans="1:13">
+    <row r="4" spans="1:13" ht="189" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1219,14 +2189,11 @@
         <v>15</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="27" hidden="1" spans="1:13">
+    <row r="5" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1252,14 +2219,11 @@
         <v>15</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="6" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1286,7 +2250,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="7" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1313,7 +2277,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="8" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1340,7 +2304,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="54" hidden="1" spans="1:9">
+    <row r="9" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1369,7 +2333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1396,7 +2360,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="11" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1425,7 +2389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="12" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1452,7 +2416,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="13" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1481,7 +2445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="14" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1510,7 +2474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="15" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1539,7 +2503,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="16" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1566,7 +2530,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="17" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1593,7 +2557,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="256.5" hidden="1" spans="1:9">
+    <row r="18" spans="1:9" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1620,7 +2584,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="19" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1649,7 +2613,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="189" spans="1:9">
+    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1678,7 +2642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="67.5" hidden="1" spans="1:9">
+    <row r="21" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1705,7 +2669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="81" spans="1:9">
+    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1734,7 +2698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="27" hidden="1" spans="1:9">
+    <row r="23" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1761,7 +2725,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="81" hidden="1" spans="1:9">
+    <row r="24" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1788,7 +2752,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="54" hidden="1" spans="1:9">
+    <row r="25" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1815,7 +2779,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="54" hidden="1" spans="1:9">
+    <row r="26" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1844,7 +2808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="67.5" hidden="1" spans="1:9">
+    <row r="27" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1871,7 +2835,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="27" spans="1:9">
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1900,7 +2864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="27" spans="1:9">
+    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1929,7 +2893,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="27" spans="1:9">
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1958,7 +2922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="162" hidden="1" spans="1:9">
+    <row r="31" spans="1:9" ht="162" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1983,7 +2947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="40.5" hidden="1" spans="1:9">
+    <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2008,7 +2972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="135" spans="1:9">
+    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2035,7 +2999,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="54" spans="1:9">
+    <row r="34" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2062,7 +3026,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="54" spans="1:9">
+    <row r="35" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2089,7 +3053,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="27" spans="1:9">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2118,7 +3082,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="27" spans="1:9">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2147,7 +3111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="94.5" spans="1:9">
+    <row r="38" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2174,7 +3138,7 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="54" spans="1:9">
+    <row r="39" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2201,7 +3165,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2228,7 +3192,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="67.5" spans="1:9">
+    <row r="41" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2255,7 +3219,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="27" spans="1:9">
+    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2282,7 +3246,7 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="27" spans="1:9">
+    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2309,7 +3273,7 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="54" spans="1:9">
+    <row r="44" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2336,18 +3300,28 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+    <row r="45" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2358,7 +3332,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2369,7 +3343,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2380,7 +3354,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2391,7 +3365,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2405,224 +3379,214 @@
   </sheetData>
   <autoFilter ref="A1:M44">
     <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="equal" val="未解决"/>
-      </customFilters>
+      <filters>
+        <filter val="未解决"/>
+      </filters>
     </filterColumn>
   </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44 H45:H50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H50">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="135.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" ht="35.25" customHeight="1"/>
-    <row r="14" ht="81" spans="1:1">
+    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
   <si>
     <t>编号</t>
   </si>
@@ -352,9 +352,6 @@
     <t>关于角色对应权限列表里的权限移除，我还有疑问。请参照sheet【问题23】</t>
   </si>
   <si>
-    <t>当前ui端实现的与接口设计不相符。设计的流程是这样：权限不提供修改接口，只有新建和删除。删除权限不需要删除角色，角色是可以修改的。</t>
-  </si>
-  <si>
     <t>结构类型</t>
   </si>
   <si>
@@ -545,15 +542,7 @@
     <t>页面列名</t>
   </si>
   <si>
-    <t>资源管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.12.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于问题33， 是资源管理当中的元数据编辑，我这边调用接口后，返回200，但是数据没有任何更新。</t>
+    <t>当前ui端实现的与接口设计不相符。设计的流程是这样：权限不提供修改接口，只有新建和删除。删除权限不需要删除角色，角色是可以修改的。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2057,8 +2046,8 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2103,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2133,7 +2122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2163,7 +2152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="189" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2193,7 +2182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2223,7 +2212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2250,7 +2239,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2389,7 +2378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2416,7 +2405,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2445,7 +2434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2474,7 +2463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2530,7 +2519,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2557,7 +2546,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2642,7 +2631,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2698,7 +2687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2725,7 +2714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2742,7 +2731,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="G24" s="10">
         <v>42331</v>
@@ -2757,10 +2746,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>61</v>
@@ -2769,7 +2758,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="10">
         <v>42331</v>
@@ -2784,10 +2773,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>61</v>
@@ -2796,7 +2785,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="10">
         <v>42331</v>
@@ -2813,10 +2802,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>61</v>
@@ -2832,27 +2821,27 @@
         <v>15</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="G28" s="10">
         <v>42331</v>
@@ -2864,24 +2853,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="G29" s="10">
         <v>42331</v>
@@ -2893,24 +2882,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="G30" s="10">
         <v>42331</v>
@@ -2922,7 +2911,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="162" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2930,13 +2919,13 @@
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
@@ -2944,7 +2933,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2955,13 +2944,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -2969,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.15">
@@ -2980,16 +2969,16 @@
         <v>53</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G33" s="10">
         <v>42338</v>
@@ -3007,16 +2996,16 @@
         <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G34" s="10">
         <v>42338</v>
@@ -3034,16 +3023,16 @@
         <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G35" s="10">
         <v>42338</v>
@@ -3053,24 +3042,24 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="G36" s="10">
         <v>42338</v>
@@ -3079,27 +3068,27 @@
         <v>18</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="G37" s="10">
         <v>42338</v>
@@ -3108,27 +3097,27 @@
         <v>18</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" s="10">
         <v>42339</v>
@@ -3138,24 +3127,24 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="10">
         <v>42339</v>
@@ -3165,24 +3154,24 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="G40" s="10">
         <v>42338</v>
@@ -3192,24 +3181,24 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G41" s="10">
         <v>42339</v>
@@ -3219,24 +3208,24 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" s="10">
         <v>42338</v>
@@ -3246,24 +3235,24 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="10">
         <v>42338</v>
@@ -3273,24 +3262,24 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G44" s="10">
         <v>42338</v>
@@ -3300,22 +3289,12 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>149</v>
-      </c>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
@@ -3378,9 +3357,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M44">
-    <filterColumn colId="7">
+    <filterColumn colId="3">
       <filters>
-        <filter val="未解决"/>
+        <filter val="耿晓红"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3411,12 +3390,12 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3456,12 +3435,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3489,7 +3468,7 @@
     <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3511,12 +3490,12 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +3519,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
@@ -3569,17 +3548,17 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
   <si>
     <t>编号</t>
   </si>
@@ -543,6 +543,22 @@
   </si>
   <si>
     <t>当前ui端实现的与接口设计不相符。设计的流程是这样：权限不提供修改接口，只有新建和删除。删除权限不需要删除角色，角色是可以修改的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面只能使用superadmin登陆，我自己新建的用户，输入的用户名和密码都正确，但是返回的错误信息是：“用户名和密码不匹配”，请确认这个问题。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿晓红</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.11</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2046,8 +2062,8 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3289,12 +3305,22 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+    <row r="45" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
+        <v>35</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>

--- a/doc/Question List.xlsx
+++ b/doc/Question List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7950"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="问题" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="问题40" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$M$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题!$A$1:$M$45</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>编号</t>
   </si>
@@ -352,6 +353,9 @@
     <t>关于角色对应权限列表里的权限移除，我还有疑问。请参照sheet【问题23】</t>
   </si>
   <si>
+    <t>当前ui端实现的与接口设计不相符。设计的流程是这样：权限不提供修改接口，只有新建和删除。删除权限不需要删除角色，角色是可以修改的。</t>
+  </si>
+  <si>
     <t>结构类型</t>
   </si>
   <si>
@@ -442,6 +446,9 @@
     <t>正常应该可以更新，接口问题</t>
   </si>
   <si>
+    <t>解决时间2015-12-14</t>
+  </si>
+  <si>
     <t>转码服务-转码配置</t>
   </si>
   <si>
@@ -504,6 +511,27 @@
   </si>
   <si>
     <t>1.接口还在实现中 2.状态监测反应的是当前时刻直到关闭期间的状态</t>
+  </si>
+  <si>
+    <t>登陆页面</t>
+  </si>
+  <si>
+    <t>登陆页面只能使用superadmin登陆，我自己新建的用户，输入的用户名和密码都正确，但是返回的错误信息是：“用户名和密码不匹配”，请确认这个问题。</t>
+  </si>
+  <si>
+    <t>2015.12.11</t>
+  </si>
+  <si>
+    <t>错误信息可自定义。该问题是由于还没有挂相应的权限操作。权限判断接口已实现，前端工程师可随时调用。</t>
+  </si>
+  <si>
+    <t>需前端实现</t>
+  </si>
+  <si>
+    <t>接口http:..rescource/{id}和resourceMetaQuery/{id}这两个接口返回值一直是success:false</t>
+  </si>
+  <si>
+    <t>2015.12.17</t>
   </si>
   <si>
     <t>/encode?code=G</t>
@@ -541,32 +569,18 @@
   <si>
     <t>页面列名</t>
   </si>
-  <si>
-    <t>当前ui端实现的与接口设计不相符。设计的流程是这样：权限不提供修改接口，只有新建和删除。删除权限不需要删除角色，角色是可以修改的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆页面只能使用superadmin登陆，我自己新建的用户，输入的用户名和密码都正确，但是返回的错误信息是：“用户名和密码不匹配”，请确认这个问题。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿晓红</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.12.11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -595,7 +609,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -645,8 +659,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -687,1046 +716,43 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12284" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="666750" y="352425"/>
-          <a:ext cx="9734550" cy="4695825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12285" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="695325" y="5105400"/>
-          <a:ext cx="9858375" cy="5048250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16382" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6705600" cy="6400800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19456" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="180975"/>
-          <a:ext cx="7610475" cy="3905250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19455" name="图片 2" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4391025"/>
-          <a:ext cx="7105650" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9934575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21504" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9934575" cy="2171700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6146" name="图片 2" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="647700" y="704850"/>
-          <a:ext cx="7315200" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6147" name="矩形 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1695450" y="1571625"/>
-          <a:ext cx="2390775" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000">
-            <a:alpha val="0"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:miter lim="200000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6149" name="图片 5" descr="rId2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="647700" y="5143500"/>
-          <a:ext cx="7315200" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6150" name="矩形 6"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1685925" y="5838825"/>
-          <a:ext cx="2390775" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000">
-            <a:alpha val="0"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7169" name="图片 1" descr="rId1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="695325" y="342900"/>
-          <a:ext cx="8239125" cy="4629150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7170" name="矩形 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="647700" y="3028950"/>
-          <a:ext cx="8543925" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:miter lim="200000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="BBD5F0">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8196" name="组合 4"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1400175" y="552450"/>
-          <a:ext cx="8143875" cy="4572000"/>
-          <a:chOff x="2182" y="795"/>
-          <a:chExt cx="12830" cy="7214"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8193" name="图片 1" descr="rId1"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2182" y="795"/>
-            <a:ext cx="12830" cy="7214"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8194" name="矩形 2"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5205" y="4560"/>
-            <a:ext cx="8490" cy="2460"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="15875">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:miter lim="200000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="BBD5F0">
-                    <a:alpha val="0"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8200" name="组合 8"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1390650" y="5476875"/>
-          <a:ext cx="9448800" cy="5305425"/>
-          <a:chOff x="2198" y="8626"/>
-          <a:chExt cx="14884" cy="8368"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8197" name="图片 5" descr="rId2"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2198" y="8626"/>
-            <a:ext cx="14884" cy="8369"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8198" name="矩形 6"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4395" y="10545"/>
-            <a:ext cx="12585" cy="870"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="15875">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:miter lim="200000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="BBD5F0"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2024,7 +1050,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2057,16 +1082,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
@@ -2079,7 +1105,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" ht="54" spans="1:13">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2138,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" ht="54" spans="1:13">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2168,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="189" x14ac:dyDescent="0.15">
+    <row r="4" ht="189" spans="1:13">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2198,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" ht="27" spans="1:13">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2228,7 +1254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" ht="40.5" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2255,7 +1281,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="40.5" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2282,7 +1308,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="27" spans="1:9">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2309,7 +1335,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="54" spans="1:9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2338,7 +1364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2365,7 +1391,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="27" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2394,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" ht="27" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2421,7 +1447,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" ht="27" spans="1:9">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2450,7 +1476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2479,7 +1505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="40.5" spans="1:9">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2508,7 +1534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2535,7 +1561,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="40.5" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2562,7 +1588,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="18" ht="256.5" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2589,7 +1615,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2618,7 +1644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+    <row r="20" ht="189" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2647,7 +1673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="21" ht="67.5" spans="1:9">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2674,7 +1700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" ht="81" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2703,7 +1729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" ht="27" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2730,7 +1756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="24" ht="81" spans="1:9">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2747,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="G24" s="10">
         <v>42331</v>
@@ -2757,15 +1783,15 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="54" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>61</v>
@@ -2774,7 +1800,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="10">
         <v>42331</v>
@@ -2784,15 +1810,15 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="54" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>61</v>
@@ -2801,7 +1827,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" s="10">
         <v>42331</v>
@@ -2813,15 +1839,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="67.5" spans="1:9">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>61</v>
@@ -2837,27 +1863,27 @@
         <v>15</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="10">
         <v>42331</v>
@@ -2869,24 +1895,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="27" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G29" s="10">
         <v>42331</v>
@@ -2898,24 +1924,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="27" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G30" s="10">
         <v>42331</v>
@@ -2927,7 +1953,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+    <row r="31" ht="162" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2935,13 +1961,13 @@
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
@@ -2949,10 +1975,10 @@
         <v>15</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2960,13 +1986,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -2974,10 +2000,10 @@
         <v>15</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" ht="135" spans="1:9">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2985,16 +2011,16 @@
         <v>53</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G33" s="10">
         <v>42338</v>
@@ -3004,7 +2030,7 @@
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" spans="1:9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3012,16 +2038,16 @@
         <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G34" s="10">
         <v>42338</v>
@@ -3031,7 +2057,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="35" ht="54" spans="1:9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3039,43 +2065,45 @@
         <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G35" s="10">
         <v>42338</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G36" s="10">
         <v>42338</v>
@@ -3084,27 +2112,27 @@
         <v>18</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:9">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G37" s="10">
         <v>42338</v>
@@ -3113,27 +2141,27 @@
         <v>18</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" ht="94.5" spans="1:9">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G38" s="10">
         <v>42339</v>
@@ -3143,24 +2171,24 @@
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="54" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G39" s="10">
         <v>42339</v>
@@ -3170,24 +2198,24 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G40" s="10">
         <v>42338</v>
@@ -3197,24 +2225,24 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="67.5" spans="1:9">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G41" s="10">
         <v>42339</v>
@@ -3224,24 +2252,24 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="27" spans="1:9">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G42" s="10">
         <v>42338</v>
@@ -3251,24 +2279,24 @@
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="27" spans="1:9">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G43" s="10">
         <v>42338</v>
@@ -3278,24 +2306,24 @@
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="54" spans="1:9">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G44" s="10">
         <v>42338</v>
@@ -3305,39 +2333,55 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="45" ht="67.5" spans="1:9">
       <c r="A45" s="4">
         <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="10">
+        <v>42352</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:9">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3348,7 +2392,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3359,7 +2403,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3370,7 +2414,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3382,216 +2426,220 @@
       <c r="I50" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M44">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="耿晓红"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:M45"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35 H45 H2:H34 H36:H44 H46:H50">
       <formula1>$M$2:$M$5</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A13:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="135.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:1" ht="81" x14ac:dyDescent="0.15">
+    <row r="13" ht="35.25" customHeight="1"/>
+    <row r="14" ht="81" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B4:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>